--- a/100runs/run067/NotionalETEOutput067.xlsx
+++ b/100runs/run067/NotionalETEOutput067.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="20">
   <si>
     <t>uniqueid</t>
   </si>
@@ -49,16 +49,25 @@
     <t>tUp</t>
   </si>
   <si>
+    <t>Missile_SOMERSAULT_State_Update</t>
+  </si>
+  <si>
     <t>Missile_BRAVER_State_Update</t>
   </si>
   <si>
     <t>Missile_HELLMASKER_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_BRAVER_342.MISSILE_BRAVER_342</t>
+    <t>MISSILE_SOMERSAULT_495.MISSILE_SOMERSAULT_495</t>
   </si>
   <si>
-    <t>MISSILE_HELLMASKER_291.MISSILE_HELLMASKER_291</t>
+    <t>MISSILE_BRAVER_136.MISSILE_BRAVER_136</t>
+  </si>
+  <si>
+    <t>MISSILE_HELLMASKER_355.MISSILE_HELLMASKER_355</t>
+  </si>
+  <si>
+    <t>MISSILE_SOMERSAULT</t>
   </si>
   <si>
     <t>MISSILE_BRAVER</t>
@@ -422,7 +431,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -471,31 +480,31 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>152.142</v>
       </c>
       <c r="F2">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G2">
-        <v>-82.35732507953408</v>
+        <v>4841122.905035318</v>
       </c>
       <c r="H2">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I2">
-        <v>-1211.896904973316</v>
+        <v>1114862.091327961</v>
       </c>
       <c r="J2">
-        <v>2646.524518045904</v>
+        <v>4843232.958930959</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>3984365.361941296</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -506,31 +515,31 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>153.142</v>
       </c>
       <c r="F3">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G3">
-        <v>-82.35732507953408</v>
+        <v>4841122.905035318</v>
       </c>
       <c r="H3">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I3">
-        <v>-1187.97083310603</v>
+        <v>1114891.705343919</v>
       </c>
       <c r="J3">
-        <v>2582.145707492614</v>
+        <v>4843184.307245442</v>
       </c>
       <c r="K3">
-        <v>187.2496709487727</v>
+        <v>3984669.157555146</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -541,31 +550,31 @@
         <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>154.142</v>
       </c>
       <c r="F4">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G4">
-        <v>-82.35732507953408</v>
+        <v>4841122.905035318</v>
       </c>
       <c r="H4">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I4">
-        <v>-1163.455603730595</v>
+        <v>1114922.048577776</v>
       </c>
       <c r="J4">
-        <v>2517.766896939325</v>
+        <v>4843135.655559924</v>
       </c>
       <c r="K4">
-        <v>365.1622149823617</v>
+        <v>3984957.804527141</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -576,31 +585,31 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>155.142</v>
       </c>
       <c r="F5">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G5">
-        <v>-82.35732507953408</v>
+        <v>4841122.905035318</v>
       </c>
       <c r="H5">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I5">
-        <v>-1138.336709385387</v>
+        <v>1114953.138985852</v>
       </c>
       <c r="J5">
-        <v>2453.388086386035</v>
+        <v>4843087.003874407</v>
       </c>
       <c r="K5">
-        <v>533.7376321007681</v>
+        <v>3985231.302857279</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,31 +620,31 @@
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>156.142</v>
       </c>
       <c r="F6">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G6">
-        <v>-82.35732507953408</v>
+        <v>4841122.905035318</v>
       </c>
       <c r="H6">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I6">
-        <v>-1112.599285375887</v>
+        <v>1114984.994966623</v>
       </c>
       <c r="J6">
-        <v>2389.009275832746</v>
+        <v>4843038.35218889</v>
       </c>
       <c r="K6">
-        <v>692.975922303991</v>
+        <v>3985489.652545562</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -646,31 +655,31 @@
         <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>157.142</v>
       </c>
       <c r="F7">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G7">
-        <v>-82.35732507953408</v>
+        <v>4841122.905035318</v>
       </c>
       <c r="H7">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I7">
-        <v>-1086.228100978149</v>
+        <v>1115017.635371614</v>
       </c>
       <c r="J7">
-        <v>2324.630465279456</v>
+        <v>4842989.700503374</v>
       </c>
       <c r="K7">
-        <v>842.8770855920314</v>
+        <v>3985732.85359199</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -681,31 +690,31 @@
         <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>158.142</v>
       </c>
       <c r="F8">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G8">
-        <v>-82.35732507953408</v>
+        <v>4841122.905035318</v>
       </c>
       <c r="H8">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I8">
-        <v>-1059.207550425662</v>
+        <v>1115051.07951655</v>
       </c>
       <c r="J8">
-        <v>2260.251654726166</v>
+        <v>4842941.048817855</v>
       </c>
       <c r="K8">
-        <v>983.4411219648887</v>
+        <v>3985960.905996562</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,31 +725,31 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E9">
         <v>159.142</v>
       </c>
       <c r="F9">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G9">
-        <v>-82.35732507953408</v>
+        <v>4841122.905035318</v>
       </c>
       <c r="H9">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I9">
-        <v>-1031.52164367427</v>
+        <v>1115085.347192786</v>
       </c>
       <c r="J9">
-        <v>2195.872844172876</v>
+        <v>4842892.397132339</v>
       </c>
       <c r="K9">
-        <v>1114.668031422563</v>
+        <v>3986173.809759278</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,31 +760,31 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E10">
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>302.514634513366</v>
+        <v>1116578.667511681</v>
       </c>
       <c r="G10">
-        <v>-68.75781250271559</v>
+        <v>4841139.417848873</v>
       </c>
       <c r="H10">
-        <v>728.3648028015591</v>
+        <v>3985233.097996482</v>
       </c>
       <c r="I10">
-        <v>-1003.153996939693</v>
+        <v>1115120.458679025</v>
       </c>
       <c r="J10">
-        <v>2131.494033619586</v>
+        <v>4842843.745446822</v>
       </c>
       <c r="K10">
-        <v>1236.557813965053</v>
+        <v>3986371.564880138</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,31 +795,31 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E11">
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>234.7866466683255</v>
+        <v>1116529.986940775</v>
       </c>
       <c r="G11">
-        <v>-55.1582999258971</v>
+        <v>4841155.930662426</v>
       </c>
       <c r="H11">
-        <v>897.3405358441083</v>
+        <v>3985432.352641731</v>
       </c>
       <c r="I11">
-        <v>-974.0878230020331</v>
+        <v>1115156.434753309</v>
       </c>
       <c r="J11">
-        <v>2067.115223066296</v>
+        <v>4842795.093761305</v>
       </c>
       <c r="K11">
-        <v>1349.110469592361</v>
+        <v>3986554.171359143</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,31 +830,31 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>194.9998514119996</v>
+        <v>1116501.38954745</v>
       </c>
       <c r="G12">
-        <v>-41.55878734907862</v>
+        <v>4841172.443475981</v>
       </c>
       <c r="H12">
-        <v>997.9911241913153</v>
+        <v>3985551.03889871</v>
       </c>
       <c r="I12">
-        <v>-944.3059212715482</v>
+        <v>1115193.296705326</v>
       </c>
       <c r="J12">
-        <v>2002.736412513007</v>
+        <v>4842746.442075787</v>
       </c>
       <c r="K12">
-        <v>1452.325998304486</v>
+        <v>3986721.629196293</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,31 +865,31 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E13">
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>169.8835073392239</v>
+        <v>1116483.336774772</v>
       </c>
       <c r="G13">
-        <v>-27.95927477226013</v>
+        <v>4841188.956289535</v>
       </c>
       <c r="H13">
-        <v>1069.91929696986</v>
+        <v>3985635.855944875</v>
       </c>
       <c r="I13">
-        <v>-913.7906676097966</v>
+        <v>1115231.066348999</v>
       </c>
       <c r="J13">
-        <v>1938.357601959717</v>
+        <v>4842697.79039027</v>
       </c>
       <c r="K13">
-        <v>1546.204400101428</v>
+        <v>3986873.938391586</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,31 +900,31 @@
         <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E14">
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>152.3674709360961</v>
+        <v>1116470.746844386</v>
       </c>
       <c r="G14">
-        <v>-14.35976219544164</v>
+        <v>4841205.46910309</v>
       </c>
       <c r="H14">
-        <v>1125.929726576967</v>
+        <v>3985701.902933283</v>
       </c>
       <c r="I14">
-        <v>-882.5240039001435</v>
+        <v>1115269.766035399</v>
       </c>
       <c r="J14">
-        <v>1873.978791406427</v>
+        <v>4842649.138704753</v>
       </c>
       <c r="K14">
-        <v>1630.745674983187</v>
+        <v>3987011.098945024</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,31 +935,31 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>139.2999832339217</v>
+        <v>1116461.354379294</v>
       </c>
       <c r="G15">
-        <v>-0.7602496186231594</v>
+        <v>4841221.981916644</v>
       </c>
       <c r="H15">
-        <v>1171.806612990121</v>
+        <v>3985756.000539862</v>
       </c>
       <c r="I15">
-        <v>-850.4874273614433</v>
+        <v>1115309.418665975</v>
       </c>
       <c r="J15">
-        <v>1809.599980853138</v>
+        <v>4842600.487019236</v>
       </c>
       <c r="K15">
-        <v>1705.949822949762</v>
+        <v>3987133.110856606</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,31 +970,31 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E16">
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>129.0830326713788</v>
+        <v>1116454.01078321</v>
       </c>
       <c r="G16">
-        <v>12.83926295819533</v>
+        <v>4841238.494730198</v>
       </c>
       <c r="H16">
-        <v>1210.660986931666</v>
+        <v>3985801.817263699</v>
       </c>
       <c r="I16">
-        <v>-817.6619795985877</v>
+        <v>1115350.047706098</v>
       </c>
       <c r="J16">
-        <v>1745.221170299848</v>
+        <v>4842551.835333719</v>
       </c>
       <c r="K16">
-        <v>1771.816844001154</v>
+        <v>3987239.974126332</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,31 +1005,31 @@
         <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>120.8167757457179</v>
+        <v>1116448.069279274</v>
       </c>
       <c r="G17">
-        <v>26.43877553501382</v>
+        <v>4841255.007543752</v>
       </c>
       <c r="H17">
-        <v>1244.360079889864</v>
+        <v>3985841.554927159</v>
       </c>
       <c r="I17">
-        <v>-784.0282353834297</v>
+        <v>1115391.677198956</v>
       </c>
       <c r="J17">
-        <v>1680.842359746558</v>
+        <v>4842503.183648202</v>
       </c>
       <c r="K17">
-        <v>1828.346738137364</v>
+        <v>3987331.688754203</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,31 +1040,31 @@
         <v>11</v>
       </c>
       <c r="C18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18">
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>113.9528370650703</v>
+        <v>1116443.13571393</v>
       </c>
       <c r="G18">
-        <v>40.0382881118323</v>
+        <v>4841271.520357306</v>
       </c>
       <c r="H18">
-        <v>1274.11304432207</v>
+        <v>3985876.639351805</v>
       </c>
       <c r="I18">
-        <v>-749.566291159451</v>
+        <v>1115434.331779778</v>
       </c>
       <c r="J18">
-        <v>1616.463549193268</v>
+        <v>4842454.531962685</v>
       </c>
       <c r="K18">
-        <v>1875.53950535839</v>
+        <v>3987408.254740218</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,31 +1075,31 @@
         <v>11</v>
       </c>
       <c r="C19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E19">
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>108.1361654804383</v>
+        <v>1116438.954888506</v>
       </c>
       <c r="G19">
-        <v>53.63780068865081</v>
+        <v>4841288.03317086</v>
       </c>
       <c r="H19">
-        <v>1300.747934644566</v>
+        <v>3985908.046971864</v>
       </c>
       <c r="I19">
-        <v>-714.2557532633639</v>
+        <v>1115478.036690411</v>
       </c>
       <c r="J19">
-        <v>1552.084738639978</v>
+        <v>4842405.880277168</v>
       </c>
       <c r="K19">
-        <v>1913.395145664233</v>
+        <v>3987469.672084378</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,31 +1110,31 @@
         <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D20" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20">
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>103.1256703868882</v>
+        <v>1116435.353515286</v>
       </c>
       <c r="G20">
-        <v>67.23731326546928</v>
+        <v>4841304.545984414</v>
       </c>
       <c r="H20">
-        <v>1324.856740606787</v>
+        <v>3985936.475856253</v>
       </c>
       <c r="I20">
-        <v>-678.0757258566848</v>
+        <v>1115522.817794261</v>
       </c>
       <c r="J20">
-        <v>1487.705928086689</v>
+        <v>4842357.22859165</v>
       </c>
       <c r="K20">
-        <v>1941.913659054894</v>
+        <v>3987515.940786682</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,31 +1145,31 @@
         <v>11</v>
       </c>
       <c r="C21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E21">
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>98.7512492692474</v>
+        <v>1116432.209330375</v>
       </c>
       <c r="G21">
-        <v>80.83682584228777</v>
+        <v>4841321.058797969</v>
       </c>
       <c r="H21">
-        <v>1346.877382057999</v>
+        <v>3985962.442396073</v>
       </c>
       <c r="I21">
-        <v>-641.0047985601315</v>
+        <v>1115568.701591594</v>
       </c>
       <c r="J21">
-        <v>1423.327117533399</v>
+        <v>4842308.576906133</v>
       </c>
       <c r="K21">
-        <v>1961.095045530371</v>
+        <v>3987547.06084713</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,31 +1180,31 @@
         <v>11</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>94.88904886907004</v>
+        <v>1116429.433312271</v>
       </c>
       <c r="G22">
-        <v>94.43633841910626</v>
+        <v>4841337.571611523</v>
       </c>
       <c r="H22">
-        <v>1367.14293080208</v>
+        <v>3985986.339346558</v>
       </c>
       <c r="I22">
-        <v>-603.0210337835279</v>
+        <v>1115615.715235225</v>
       </c>
       <c r="J22">
-        <v>1358.948306980109</v>
+        <v>4842259.925220616</v>
       </c>
       <c r="K22">
-        <v>1970.939305090665</v>
+        <v>3987563.032265722</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,31 +1215,31 @@
         <v>11</v>
       </c>
       <c r="C23" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E23">
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>91.44648842359403</v>
+        <v>1116426.958917073</v>
       </c>
       <c r="G23">
-        <v>108.0358509959247</v>
+        <v>4841354.084425078</v>
       </c>
       <c r="H23">
-        <v>1385.912621512229</v>
+        <v>3986008.472394875</v>
       </c>
       <c r="I23">
-        <v>-564.1019537437232</v>
+        <v>1115663.886546579</v>
       </c>
       <c r="J23">
-        <v>1294.56949642682</v>
+        <v>4842211.2735351</v>
       </c>
       <c r="K23">
-        <v>1971.446437735776</v>
+        <v>3987563.855042459</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,31 +1250,31 @@
         <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E24">
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>88.35280418320761</v>
+        <v>1116424.73528221</v>
       </c>
       <c r="G24">
-        <v>121.6353635727432</v>
+        <v>4841370.597238632</v>
       </c>
       <c r="H24">
-        <v>1403.392182737802</v>
+        <v>3986029.084134256</v>
       </c>
       <c r="I24">
-        <v>-524.2245271628358</v>
+        <v>1115713.244032158</v>
       </c>
       <c r="J24">
-        <v>1230.19068587353</v>
+        <v>4842162.621849582</v>
       </c>
       <c r="K24">
-        <v>1962.616443465704</v>
+        <v>3987549.52917734</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,31 +1285,31 @@
         <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25">
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>85.55286391588118</v>
+        <v>1116422.722780509</v>
       </c>
       <c r="G25">
-        <v>135.2348761495617</v>
+        <v>4841387.110052186</v>
       </c>
       <c r="H25">
-        <v>1419.747618683271</v>
+        <v>3986048.370315345</v>
       </c>
       <c r="I25">
-        <v>-483.3651556389533</v>
+        <v>1115763.816900411</v>
       </c>
       <c r="J25">
-        <v>1165.81187532024</v>
+        <v>4842113.970164065</v>
       </c>
       <c r="K25">
-        <v>1944.449322280449</v>
+        <v>3987520.054670365</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,31 +1320,31 @@
         <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>83.00299549345502</v>
+        <v>1116420.890021933</v>
       </c>
       <c r="G26">
-        <v>148.8343887263802</v>
+        <v>4841403.62286574</v>
       </c>
       <c r="H26">
-        <v>1435.114820888767</v>
+        <v>3986066.49118021</v>
       </c>
       <c r="I26">
-        <v>-441.4996596812279</v>
+        <v>1115815.635079018</v>
       </c>
       <c r="J26">
-        <v>1101.43306476695</v>
+        <v>4842065.318478548</v>
       </c>
       <c r="K26">
-        <v>1916.94507418001</v>
+        <v>3987475.431521535</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,31 +1355,31 @@
         <v>11</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E27">
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>80.66809858884335</v>
+        <v>1116419.211777563</v>
       </c>
       <c r="G27">
-        <v>162.4339013031987</v>
+        <v>4841420.135679293</v>
       </c>
       <c r="H27">
-        <v>1449.606437942811</v>
+        <v>3986083.57956304</v>
       </c>
       <c r="I27">
-        <v>-398.6032644010937</v>
+        <v>1115868.729232602</v>
       </c>
       <c r="J27">
-        <v>1037.05425421366</v>
+        <v>4842016.66679303</v>
       </c>
       <c r="K27">
-        <v>1880.103699164389</v>
+        <v>3987415.659730849</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,31 +1390,31 @@
         <v>11</v>
       </c>
       <c r="C28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E28">
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>78.51959815249481</v>
+        <v>1116417.667508626</v>
       </c>
       <c r="G28">
-        <v>176.0334138800172</v>
+        <v>4841436.648492849</v>
       </c>
       <c r="H28">
-        <v>1463.31689143294</v>
+        <v>3986099.746804911</v>
       </c>
       <c r="I28">
-        <v>-354.6505848511464</v>
+        <v>1115923.130780873</v>
       </c>
       <c r="J28">
-        <v>972.6754436603708</v>
+        <v>4841968.015107513</v>
       </c>
       <c r="K28">
-        <v>1833.925197233585</v>
+        <v>3987340.739298307</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,31 +1425,31 @@
         <v>11</v>
       </c>
       <c r="C29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>76.53396454457568</v>
+        <v>1116416.240302817</v>
       </c>
       <c r="G29">
-        <v>189.6329264568357</v>
+        <v>4841453.161306403</v>
       </c>
       <c r="H29">
-        <v>1476.32610779579</v>
+        <v>3986115.087154348</v>
       </c>
       <c r="I29">
-        <v>-309.6156110030049</v>
+        <v>1115978.871917221</v>
       </c>
       <c r="J29">
-        <v>908.296633107081</v>
+        <v>4841919.363421996</v>
       </c>
       <c r="K29">
-        <v>1778.409568387597</v>
+        <v>3987250.670223911</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,31 +1460,31 @@
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30">
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>74.69162391175797</v>
+        <v>1116414.916091119</v>
       </c>
       <c r="G30">
-        <v>203.2324390336541</v>
+        <v>4841469.674119957</v>
       </c>
       <c r="H30">
-        <v>1488.702341407356</v>
+        <v>3986129.681096291</v>
       </c>
       <c r="I30">
-        <v>-263.4716923552693</v>
+        <v>1116035.98562777</v>
       </c>
       <c r="J30">
-        <v>843.9178225537911</v>
+        <v>4841870.71173648</v>
       </c>
       <c r="K30">
-        <v>1713.556812626426</v>
+        <v>3987145.452507657</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,31 +1495,31 @@
         <v>11</v>
       </c>
       <c r="C31" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E31">
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>72.97614282980361</v>
+        <v>1116413.683061745</v>
       </c>
       <c r="G31">
-        <v>216.8319516104727</v>
+        <v>4841486.186933511</v>
       </c>
       <c r="H31">
-        <v>1500.504342181448</v>
+        <v>3986143.597908102</v>
       </c>
       <c r="I31">
-        <v>-216.19152216246</v>
+        <v>1116094.505710899</v>
       </c>
       <c r="J31">
-        <v>779.5390120005015</v>
+        <v>4841822.060050962</v>
       </c>
       <c r="K31">
-        <v>1639.366929950073</v>
+        <v>3987025.086149549</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,31 +1530,31 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E32">
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>71.37360924218646</v>
+        <v>1116412.531215183</v>
       </c>
       <c r="G32">
-        <v>230.4314641872911</v>
+        <v>4841502.699747066</v>
       </c>
       <c r="H32">
-        <v>1511.783042237847</v>
+        <v>3986156.897648474</v>
       </c>
       <c r="I32">
-        <v>-167.7471212756119</v>
+        <v>1116154.466797237</v>
       </c>
       <c r="J32">
-        <v>715.1602014472116</v>
+        <v>4841773.408365445</v>
       </c>
       <c r="K32">
-        <v>1555.839920358536</v>
+        <v>3986889.571149585</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,31 +1565,31 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E33">
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>69.87215621548324</v>
+        <v>1116411.452021886</v>
       </c>
       <c r="G33">
-        <v>244.0309767641096</v>
+        <v>4841519.212560619</v>
       </c>
       <c r="H33">
-        <v>1522.582884264138</v>
+        <v>3986169.632723819</v>
       </c>
       <c r="I33">
-        <v>-118.1098215849564</v>
+        <v>1116215.904370162</v>
       </c>
       <c r="J33">
-        <v>650.7813908939221</v>
+        <v>4841724.756679928</v>
       </c>
       <c r="K33">
-        <v>1462.975783851817</v>
+        <v>3986738.907507765</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,31 +1600,31 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E34">
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>68.46159115934435</v>
+        <v>1116410.438155766</v>
       </c>
       <c r="G34">
-        <v>257.6304893409281</v>
+        <v>4841535.725374174</v>
       </c>
       <c r="H34">
-        <v>1532.942879200611</v>
+        <v>3986181.849135481</v>
       </c>
       <c r="I34">
-        <v>-67.25024905489687</v>
+        <v>1116278.8547868</v>
       </c>
       <c r="J34">
-        <v>586.4025803406322</v>
+        <v>4841676.104994411</v>
       </c>
       <c r="K34">
-        <v>1360.774520429914</v>
+        <v>3986573.095224089</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,31 +1635,31 @@
         <v>11</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>67.13310398983927</v>
+        <v>1116409.483284436</v>
       </c>
       <c r="G35">
-        <v>271.2300019177466</v>
+        <v>4841552.238187728</v>
       </c>
       <c r="H35">
-        <v>1542.897456850822</v>
+        <v>3986193.587482773</v>
       </c>
       <c r="I35">
-        <v>-15.13830634123359</v>
+        <v>1116343.355299534</v>
       </c>
       <c r="J35">
-        <v>522.0237697873424</v>
+        <v>4841627.453308893</v>
       </c>
       <c r="K35">
-        <v>1249.236130092828</v>
+        <v>3986392.134298557</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,31 +1670,31 @@
         <v>11</v>
       </c>
       <c r="C36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E36">
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>65.87903512051538</v>
+        <v>1116408.581902445</v>
       </c>
       <c r="G36">
-        <v>284.8295144945651</v>
+        <v>4841568.751001282</v>
       </c>
       <c r="H36">
-        <v>1552.477156239566</v>
+        <v>3986204.883777033</v>
       </c>
       <c r="I36">
-        <v>38.25684501964559</v>
+        <v>1116409.444078054</v>
       </c>
       <c r="J36">
-        <v>457.6449592340528</v>
+        <v>4841578.801623376</v>
       </c>
       <c r="K36">
-        <v>1128.360612840559</v>
+        <v>3986196.024731171</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,31 +1705,31 @@
         <v>11</v>
       </c>
       <c r="C37" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E37">
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>64.6926893125316</v>
+        <v>1116407.729197484</v>
       </c>
       <c r="G37">
-        <v>298.4290270713836</v>
+        <v>4841585.263814837</v>
       </c>
       <c r="H37">
-        <v>1561.709190635932</v>
+        <v>3986215.770107901</v>
       </c>
       <c r="I37">
-        <v>92.96680286014781</v>
+        <v>1116477.160231945</v>
       </c>
       <c r="J37">
-        <v>393.266148680763</v>
+        <v>4841530.14993786</v>
       </c>
       <c r="K37">
-        <v>998.1479686731069</v>
+        <v>3985984.766521928</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,31 +1740,31 @@
         <v>11</v>
       </c>
       <c r="C38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E38">
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>63.56818504657647</v>
+        <v>1116406.920942117</v>
       </c>
       <c r="G38">
-        <v>312.0285396482021</v>
+        <v>4841601.77662839</v>
       </c>
       <c r="H38">
-        <v>1570.617913592936</v>
+        <v>3986226.275192865</v>
       </c>
       <c r="I38">
-        <v>149.0239430802346</v>
+        <v>1116546.543833828</v>
       </c>
       <c r="J38">
-        <v>328.8873381274734</v>
+        <v>4841481.498252342</v>
       </c>
       <c r="K38">
-        <v>858.5981975904723</v>
+        <v>3985758.35967083</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,31 +1775,31 @@
         <v>11</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E39">
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>62.50033167694951</v>
+        <v>1116406.153405485</v>
       </c>
       <c r="G39">
-        <v>325.6280522250206</v>
+        <v>4841618.289441945</v>
       </c>
       <c r="H39">
-        <v>1579.225206109733</v>
+        <v>3986236.424833799</v>
       </c>
       <c r="I39">
-        <v>206.4614388066171</v>
+        <v>1116617.635943076</v>
       </c>
       <c r="J39">
-        <v>264.5085275741835</v>
+        <v>4841432.846566825</v>
       </c>
       <c r="K39">
-        <v>709.7112995926536</v>
+        <v>3985516.804177876</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,31 +1810,31 @@
         <v>11</v>
       </c>
       <c r="C40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E40">
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>61.48452851025496</v>
+        <v>1116405.423280767</v>
       </c>
       <c r="G40">
-        <v>339.227564801839</v>
+        <v>4841634.802255499</v>
       </c>
       <c r="H40">
-        <v>1587.55080041331</v>
+        <v>3986246.242298767</v>
       </c>
       <c r="I40">
-        <v>265.3132800237351</v>
+        <v>1116690.47863011</v>
       </c>
       <c r="J40">
-        <v>200.1297170208937</v>
+        <v>4841384.194881308</v>
       </c>
       <c r="K40">
-        <v>551.4872746796523</v>
+        <v>3985260.100043066</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,31 +1845,31 @@
         <v>11</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>60.51668133097337</v>
+        <v>1116404.727625178</v>
       </c>
       <c r="G41">
-        <v>352.8270773786575</v>
+        <v>4841651.315069053</v>
       </c>
       <c r="H41">
-        <v>1595.612552416813</v>
+        <v>3986255.748643296</v>
       </c>
       <c r="I41">
-        <v>325.6142936881226</v>
+        <v>1116765.115001298</v>
       </c>
       <c r="J41">
-        <v>135.7509064676041</v>
+        <v>4841335.543195791</v>
       </c>
       <c r="K41">
-        <v>383.9261228514683</v>
+        <v>3984988.247266401</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,31 +1880,31 @@
         <v>11</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>59.59313291894856</v>
+        <v>1116404.063810035</v>
       </c>
       <c r="G42">
-        <v>366.426589955476</v>
+        <v>4841667.827882607</v>
       </c>
       <c r="H42">
-        <v>1603.426672317714</v>
+        <v>3986264.962982307</v>
       </c>
       <c r="I42">
-        <v>387.4001643380817</v>
+        <v>1116841.589224463</v>
       </c>
       <c r="J42">
-        <v>71.37209591431423</v>
+        <v>4841286.891510274</v>
       </c>
       <c r="K42">
-        <v>207.0278441081006</v>
+        <v>3984701.24584788</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,31 +1915,31 @@
         <v>11</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E43">
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>58.71060486971896</v>
+        <v>1116403.429478931</v>
       </c>
       <c r="G43">
-        <v>380.0261025322945</v>
+        <v>4841684.340696163</v>
       </c>
       <c r="H43">
-        <v>1611.00792082393</v>
+        <v>3986273.90272149</v>
       </c>
       <c r="I43">
-        <v>450.7074552108367</v>
+        <v>1116919.946555018</v>
       </c>
       <c r="J43">
-        <v>6.993285361024366</v>
+        <v>4841238.239824756</v>
       </c>
       <c r="K43">
-        <v>20.79243844955003</v>
+        <v>3984399.095787504</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,31 +1950,31 @@
         <v>11</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44">
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>57.86614860767355</v>
+        <v>1116402.822512532</v>
       </c>
       <c r="G44">
-        <v>393.625615109113</v>
+        <v>4841700.853509716</v>
       </c>
       <c r="H44">
-        <v>1618.369776978345</v>
+        <v>3986282.58375521</v>
       </c>
       <c r="I44">
-        <v>515.573629879693</v>
+        <v>1117000.233362751</v>
       </c>
       <c r="J44">
-        <v>-57.3855251922652</v>
+        <v>4841189.58813924</v>
       </c>
       <c r="K44">
-        <v>-174.7800941241831</v>
+        <v>3984081.797085271</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,31 +1985,31 @@
         <v>11</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45">
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>57.0571039237213</v>
+        <v>1116402.240998768</v>
       </c>
       <c r="G45">
-        <v>407.2251276859315</v>
+        <v>4841717.36632327</v>
       </c>
       <c r="H45">
-        <v>1625.524582376271</v>
+        <v>3986291.020636563</v>
       </c>
       <c r="I45">
-        <v>582.037074423984</v>
+        <v>1117082.497159261</v>
       </c>
       <c r="J45">
-        <v>-121.7643357455551</v>
+        <v>4841140.936453722</v>
       </c>
       <c r="K45">
-        <v>-379.6897536130998</v>
+        <v>3983749.349741183</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,31 +2020,31 @@
         <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46">
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>56.28106370894056</v>
+        <v>1116401.683207493</v>
       </c>
       <c r="G46">
-        <v>420.82464026275</v>
+        <v>4841733.879136824</v>
       </c>
       <c r="H46">
-        <v>1632.483665651879</v>
+        <v>3986299.226724174</v>
       </c>
       <c r="I46">
-        <v>650.1371201449307</v>
+        <v>1117166.78662608</v>
       </c>
       <c r="J46">
-        <v>-186.1431462988449</v>
+        <v>4841092.284768205</v>
       </c>
       <c r="K46">
-        <v>-593.9365400172002</v>
+        <v>3983401.753755239</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,31 +2055,31 @@
         <v>11</v>
       </c>
       <c r="C47" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47">
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>55.53584381912209</v>
+        <v>1116401.147568818</v>
       </c>
       <c r="G47">
-        <v>434.4241528395685</v>
+        <v>4841750.391950378</v>
       </c>
       <c r="H47">
-        <v>1639.257450386886</v>
+        <v>3986307.214309433</v>
       </c>
       <c r="I47">
-        <v>719.9140668408623</v>
+        <v>1117253.151643473</v>
       </c>
       <c r="J47">
-        <v>-250.5219568521348</v>
+        <v>4841043.633082688</v>
       </c>
       <c r="K47">
-        <v>-817.5204533364831</v>
+        <v>3983039.00912744</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,31 +2090,31 @@
         <v>11</v>
       </c>
       <c r="C48" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E48">
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>54.81945721088738</v>
+        <v>1116400.632654523</v>
       </c>
       <c r="G48">
-        <v>448.0236654163869</v>
+        <v>4841766.904763933</v>
       </c>
       <c r="H48">
-        <v>1645.855549022097</v>
+        <v>3986314.994727243</v>
       </c>
       <c r="I48">
-        <v>791.409206655567</v>
+        <v>1117341.643319966</v>
       </c>
       <c r="J48">
-        <v>-314.9007674054241</v>
+        <v>4840994.981397171</v>
       </c>
       <c r="K48">
-        <v>-1050.441493570948</v>
+        <v>3982661.115857785</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,31 +2125,31 @@
         <v>11</v>
       </c>
       <c r="C49" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E49">
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>54.13009165192529</v>
+        <v>1116400.137162039</v>
       </c>
       <c r="G49">
-        <v>461.6231779932054</v>
+        <v>4841783.417577486</v>
       </c>
       <c r="H49">
-        <v>1652.286844895552</v>
+        <v>3986322.578452756</v>
       </c>
       <c r="I49">
-        <v>864.664848513887</v>
+        <v>1117432.314022582</v>
       </c>
       <c r="J49">
-        <v>-379.2795779587139</v>
+        <v>4840946.329711654</v>
       </c>
       <c r="K49">
-        <v>-1292.699660720597</v>
+        <v>3982268.073946275</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,31 +2160,31 @@
         <v>11</v>
       </c>
       <c r="C50" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E50">
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>53.4660904360449</v>
+        <v>1116399.65990058</v>
       </c>
       <c r="G50">
-        <v>475.2226905700239</v>
+        <v>4841799.930391042</v>
       </c>
       <c r="H50">
-        <v>1658.559564164341</v>
+        <v>3986329.975186181</v>
       </c>
       <c r="I50">
-        <v>939.724343159013</v>
+        <v>1117525.217407834</v>
       </c>
       <c r="J50">
-        <v>-443.6583885120038</v>
+        <v>4840897.678026136</v>
       </c>
       <c r="K50">
-        <v>-1544.294954785429</v>
+        <v>3981859.883392908</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,31 +2195,31 @@
         <v>11</v>
       </c>
       <c r="C51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E51">
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>52.82593563585538</v>
+        <v>1116399.199779113</v>
       </c>
       <c r="G51">
-        <v>488.8222031468424</v>
+        <v>4841816.443204596</v>
       </c>
       <c r="H51">
-        <v>1664.681339071103</v>
+        <v>3986337.19392739</v>
       </c>
       <c r="I51">
-        <v>1016.632108806306</v>
+        <v>1117620.408453478</v>
       </c>
       <c r="J51">
-        <v>-508.0371990652936</v>
+        <v>4840849.02634062</v>
       </c>
       <c r="K51">
-        <v>-1805.227375765445</v>
+        <v>3981436.544197686</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,31 +2230,31 @@
         <v>11</v>
       </c>
       <c r="C52" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>52.20823350772871</v>
+        <v>1116398.755795862</v>
       </c>
       <c r="G52">
-        <v>502.421715723661</v>
+        <v>4841832.95601815</v>
       </c>
       <c r="H52">
-        <v>1670.659263775809</v>
+        <v>3986344.24304175</v>
       </c>
       <c r="I52">
-        <v>1095.433657428818</v>
+        <v>1117717.943491047</v>
       </c>
       <c r="J52">
-        <v>-572.4160096185835</v>
+        <v>4840800.374655102</v>
       </c>
       <c r="K52">
-        <v>-2075.496923660643</v>
+        <v>3980998.056360608</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,31 +2265,31 @@
         <v>11</v>
       </c>
       <c r="C53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E53">
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>51.61170172966327</v>
+        <v>1116398.327029137</v>
       </c>
       <c r="G53">
-        <v>516.0212283004794</v>
+        <v>4841849.468831704</v>
       </c>
       <c r="H53">
-        <v>1676.499943777225</v>
+        <v>3986351.130318406</v>
       </c>
       <c r="I53">
-        <v>1176.175621690061</v>
+        <v>1117817.880239186</v>
       </c>
       <c r="J53">
-        <v>-636.7948201718727</v>
+        <v>4840751.722969586</v>
       </c>
       <c r="K53">
-        <v>-2355.103598471022</v>
+        <v>3980544.419881675</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,31 +2300,31 @@
         <v>11</v>
       </c>
       <c r="C54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E54">
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>51.03515820612659</v>
+        <v>1116397.912629289</v>
       </c>
       <c r="G54">
-        <v>529.6207408772979</v>
+        <v>4841865.981645258</v>
       </c>
       <c r="H54">
-        <v>1682.209539787475</v>
+        <v>3986357.863022014</v>
       </c>
       <c r="I54">
-        <v>1258.905782539995</v>
+        <v>1117920.277837807</v>
       </c>
       <c r="J54">
-        <v>-701.1736307251626</v>
+        <v>4840703.071284068</v>
       </c>
       <c r="K54">
-        <v>-2644.047400196587</v>
+        <v>3980075.634760886</v>
       </c>
     </row>
     <row r="55" spans="1:11">
@@ -2326,31 +2335,31 @@
         <v>12</v>
       </c>
       <c r="C55" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E55">
         <v>152.142</v>
       </c>
       <c r="F55">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G55">
-        <v>-86.00828818063643</v>
+        <v>4841121.643702101</v>
       </c>
       <c r="H55">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I55">
-        <v>-1487.31563946256</v>
+        <v>1114862.543669482</v>
       </c>
       <c r="J55">
-        <v>1055.677795697846</v>
+        <v>4843219.181204542</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>3984361.551463383</v>
       </c>
     </row>
     <row r="56" spans="1:11">
@@ -2361,31 +2370,31 @@
         <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56">
         <v>153.142</v>
       </c>
       <c r="F56">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G56">
-        <v>-86.00828818063643</v>
+        <v>4841121.643702101</v>
       </c>
       <c r="H56">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I56">
-        <v>-1457.952068408714</v>
+        <v>1114892.157697455</v>
       </c>
       <c r="J56">
-        <v>1029.997594985128</v>
+        <v>4843170.529657425</v>
       </c>
       <c r="K56">
-        <v>249.7737094872185</v>
+        <v>3984665.346786696</v>
       </c>
     </row>
     <row r="57" spans="1:11">
@@ -2396,31 +2405,31 @@
         <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>154.142</v>
       </c>
       <c r="F57">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G57">
-        <v>-86.00828818063643</v>
+        <v>4841121.643702101</v>
       </c>
       <c r="H57">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I57">
-        <v>-1427.865446431658</v>
+        <v>1114922.500943624</v>
       </c>
       <c r="J57">
-        <v>1004.317394272411</v>
+        <v>4843121.878110309</v>
       </c>
       <c r="K57">
-        <v>487.0925568978225</v>
+        <v>3984953.993482641</v>
       </c>
     </row>
     <row r="58" spans="1:11">
@@ -2431,31 +2440,31 @@
         <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58">
         <v>155.142</v>
       </c>
       <c r="F58">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G58">
-        <v>-86.00828818063643</v>
+        <v>4841121.643702101</v>
       </c>
       <c r="H58">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I58">
-        <v>-1397.037969067601</v>
+        <v>1114953.591364314</v>
       </c>
       <c r="J58">
-        <v>978.637193559694</v>
+        <v>4843073.226563194</v>
       </c>
       <c r="K58">
-        <v>711.9565422318138</v>
+        <v>3985227.491551218</v>
       </c>
     </row>
     <row r="59" spans="1:11">
@@ -2466,31 +2475,31 @@
         <v>12</v>
       </c>
       <c r="C59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>156.142</v>
       </c>
       <c r="F59">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G59">
-        <v>-86.00828818063643</v>
+        <v>4841121.643702101</v>
       </c>
       <c r="H59">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I59">
-        <v>-1365.451393434214</v>
+        <v>1114985.447358011</v>
       </c>
       <c r="J59">
-        <v>952.9569928469768</v>
+        <v>4843024.575016078</v>
       </c>
       <c r="K59">
-        <v>924.365665489191</v>
+        <v>3985485.840992426</v>
       </c>
     </row>
     <row r="60" spans="1:11">
@@ -2501,31 +2510,31 @@
         <v>12</v>
       </c>
       <c r="C60" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E60">
         <v>157.142</v>
       </c>
       <c r="F60">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G60">
-        <v>-86.00828818063643</v>
+        <v>4841121.643702101</v>
       </c>
       <c r="H60">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I60">
-        <v>-1333.08702743497</v>
+        <v>1115018.087776246</v>
       </c>
       <c r="J60">
-        <v>927.2767921342595</v>
+        <v>4842975.923468962</v>
       </c>
       <c r="K60">
-        <v>1124.319926669956</v>
+        <v>3985729.041806267</v>
       </c>
     </row>
     <row r="61" spans="1:11">
@@ -2536,31 +2545,31 @@
         <v>12</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61">
         <v>158.142</v>
       </c>
       <c r="F61">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G61">
-        <v>-86.00828818063643</v>
+        <v>4841121.643702101</v>
       </c>
       <c r="H61">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I61">
-        <v>-1299.925718697666</v>
+        <v>1115051.53193475</v>
       </c>
       <c r="J61">
-        <v>901.5965914215423</v>
+        <v>4842927.271921846</v>
       </c>
       <c r="K61">
-        <v>1311.819325774106</v>
+        <v>3985957.093992739</v>
       </c>
     </row>
     <row r="62" spans="1:11">
@@ -2571,31 +2580,31 @@
         <v>12</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62">
         <v>159.142</v>
       </c>
       <c r="F62">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G62">
-        <v>-86.00828818063643</v>
+        <v>4841121.643702101</v>
       </c>
       <c r="H62">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I62">
-        <v>-1265.947843240551</v>
+        <v>1115085.799624891</v>
       </c>
       <c r="J62">
-        <v>875.9163907088249</v>
+        <v>4842878.62037473</v>
       </c>
       <c r="K62">
-        <v>1486.863862801644</v>
+        <v>3986169.997551843</v>
       </c>
     </row>
     <row r="63" spans="1:11">
@@ -2606,31 +2615,31 @@
         <v>12</v>
       </c>
       <c r="C63" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E63">
         <v>160.142</v>
       </c>
       <c r="F63">
-        <v>158.3900701328122</v>
+        <v>1116579.296789359</v>
       </c>
       <c r="G63">
-        <v>-71.80589882797568</v>
+        <v>4841138.156511352</v>
       </c>
       <c r="H63">
-        <v>725.772928614028</v>
+        <v>3985225.258706809</v>
       </c>
       <c r="I63">
-        <v>-1231.133293859377</v>
+        <v>1115120.911125375</v>
       </c>
       <c r="J63">
-        <v>850.2361899961077</v>
+        <v>4842829.968827615</v>
       </c>
       <c r="K63">
-        <v>1649.453537752567</v>
+        <v>3986367.752483579</v>
       </c>
     </row>
     <row r="64" spans="1:11">
@@ -2641,31 +2650,31 @@
         <v>12</v>
       </c>
       <c r="C64" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>161.142</v>
       </c>
       <c r="F64">
-        <v>122.92917164773</v>
+        <v>1116530.616191019</v>
       </c>
       <c r="G64">
-        <v>-57.60350947531494</v>
+        <v>4841154.669320604</v>
       </c>
       <c r="H64">
-        <v>894.1473642859362</v>
+        <v>3985424.512960107</v>
       </c>
       <c r="I64">
-        <v>-1195.461468228489</v>
+        <v>1115156.887214256</v>
       </c>
       <c r="J64">
-        <v>824.5559892833905</v>
+        <v>4842781.317280499</v>
       </c>
       <c r="K64">
-        <v>1799.588350626876</v>
+        <v>3986550.358787946</v>
       </c>
     </row>
     <row r="65" spans="1:11">
@@ -2676,31 +2685,31 @@
         <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E65">
         <v>162.142</v>
       </c>
       <c r="F65">
-        <v>102.0976726984424</v>
+        <v>1116502.018781576</v>
       </c>
       <c r="G65">
-        <v>-43.40112012265422</v>
+        <v>4841171.182129856</v>
       </c>
       <c r="H65">
-        <v>994.4397891676742</v>
+        <v>3985543.19898362</v>
       </c>
       <c r="I65">
-        <v>-1158.911256708919</v>
+        <v>1115193.749181229</v>
       </c>
       <c r="J65">
-        <v>798.8757885706732</v>
+        <v>4842732.665733382</v>
       </c>
       <c r="K65">
-        <v>1937.268301424573</v>
+        <v>3986717.816464946</v>
       </c>
     </row>
     <row r="66" spans="1:11">
@@ -2711,31 +2720,31 @@
         <v>12</v>
       </c>
       <c r="C66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D66" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E66">
         <v>163.142</v>
       </c>
       <c r="F66">
-        <v>88.94730228556566</v>
+        <v>1116483.965998724</v>
       </c>
       <c r="G66">
-        <v>-29.19873076999347</v>
+        <v>4841187.694939109</v>
       </c>
       <c r="H66">
-        <v>1066.112006724792</v>
+        <v>3985628.015862944</v>
       </c>
       <c r="I66">
-        <v>-1121.461029856256</v>
+        <v>1115231.518840227</v>
       </c>
       <c r="J66">
-        <v>773.195587857956</v>
+        <v>4842684.014186267</v>
       </c>
       <c r="K66">
-        <v>2062.493390145657</v>
+        <v>3986870.125514578</v>
       </c>
     </row>
     <row r="67" spans="1:11">
@@ -2746,31 +2755,31 @@
         <v>12</v>
       </c>
       <c r="C67" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D67" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E67">
         <v>164.142</v>
       </c>
       <c r="F67">
-        <v>79.77628734011279</v>
+        <v>1116471.376061243</v>
       </c>
       <c r="G67">
-        <v>-14.99634141733273</v>
+        <v>4841204.20774836</v>
       </c>
       <c r="H67">
-        <v>1121.923124138101</v>
+        <v>3985694.062721432</v>
       </c>
       <c r="I67">
-        <v>-1083.088625620924</v>
+        <v>1115270.218542329</v>
       </c>
       <c r="J67">
-        <v>747.5153871452386</v>
+        <v>4842635.362639152</v>
       </c>
       <c r="K67">
-        <v>2175.263616790126</v>
+        <v>3987007.285936841</v>
       </c>
     </row>
     <row r="68" spans="1:11">
@@ -2781,31 +2790,31 @@
         <v>12</v>
       </c>
       <c r="C68" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E68">
         <v>165.142</v>
       </c>
       <c r="F68">
-        <v>72.93443555024301</v>
+        <v>1116461.983590857</v>
       </c>
       <c r="G68">
-        <v>-0.7939520646720056</v>
+        <v>4841220.720557612</v>
       </c>
       <c r="H68">
-        <v>1167.636758404473</v>
+        <v>3985748.160221595</v>
       </c>
       <c r="I68">
-        <v>-1043.771336233262</v>
+        <v>1115309.871188993</v>
       </c>
       <c r="J68">
-        <v>721.8351864325215</v>
+        <v>4842586.711092035</v>
       </c>
       <c r="K68">
-        <v>2275.578981357982</v>
+        <v>3987129.297731736</v>
       </c>
     </row>
     <row r="69" spans="1:11">
@@ -2816,31 +2825,31 @@
         <v>12</v>
       </c>
       <c r="C69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D69" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E69">
         <v>166.142</v>
       </c>
       <c r="F69">
-        <v>67.58506288684167</v>
+        <v>1116454.639990635</v>
       </c>
       <c r="G69">
-        <v>13.40843728798874</v>
+        <v>4841237.233366864</v>
       </c>
       <c r="H69">
-        <v>1206.352869694521</v>
+        <v>3985793.976855308</v>
       </c>
       <c r="I69">
-        <v>-1003.485894765672</v>
+        <v>1115350.500245601</v>
       </c>
       <c r="J69">
-        <v>696.1549857198041</v>
+        <v>4842538.059544919</v>
       </c>
       <c r="K69">
-        <v>2363.439483849225</v>
+        <v>3987236.160899263</v>
       </c>
     </row>
     <row r="70" spans="1:11">
@@ -2851,31 +2860,31 @@
         <v>12</v>
       </c>
       <c r="C70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E70">
         <v>167.142</v>
       </c>
       <c r="F70">
-        <v>63.25703090155463</v>
+        <v>1116448.69848335</v>
       </c>
       <c r="G70">
-        <v>27.61082664064948</v>
+        <v>4841253.746176115</v>
       </c>
       <c r="H70">
-        <v>1239.932044983928</v>
+        <v>3985833.7144406</v>
       </c>
       <c r="I70">
-        <v>-962.2084613638682</v>
+        <v>1115392.12975535</v>
       </c>
       <c r="J70">
-        <v>670.4747850070869</v>
+        <v>4842489.407997804</v>
       </c>
       <c r="K70">
-        <v>2438.845124263854</v>
+        <v>3987327.875439422</v>
       </c>
     </row>
     <row r="71" spans="1:11">
@@ -2886,31 +2895,31 @@
         <v>12</v>
       </c>
       <c r="C71" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D71" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E71">
         <v>168.142</v>
       </c>
       <c r="F71">
-        <v>59.66322218957625</v>
+        <v>1116443.764915226</v>
       </c>
       <c r="G71">
-        <v>41.81321599331021</v>
+        <v>4841270.258985368</v>
       </c>
       <c r="H71">
-        <v>1269.579133980888</v>
+        <v>3985868.798796233</v>
       </c>
       <c r="I71">
-        <v>-919.9146091390879</v>
+        <v>1115434.784353479</v>
       </c>
       <c r="J71">
-        <v>644.7945842943697</v>
+        <v>4842440.756450688</v>
       </c>
       <c r="K71">
-        <v>2501.79590260187</v>
+        <v>3987404.441352212</v>
       </c>
     </row>
     <row r="72" spans="1:11">
@@ -2921,31 +2930,31 @@
         <v>12</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D72" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E72">
         <v>169.142</v>
       </c>
       <c r="F72">
-        <v>56.6177397066827</v>
+        <v>1116439.584087445</v>
       </c>
       <c r="G72">
-        <v>56.01560534597096</v>
+        <v>4841286.771794619</v>
       </c>
       <c r="H72">
-        <v>1296.119244483644</v>
+        <v>3985900.20635451</v>
       </c>
       <c r="I72">
-        <v>-876.5793097129027</v>
+        <v>1115478.489281844</v>
       </c>
       <c r="J72">
-        <v>619.1143835816523</v>
+        <v>4842392.104903572</v>
       </c>
       <c r="K72">
-        <v>2552.291818863272</v>
+        <v>3987465.858637635</v>
       </c>
     </row>
     <row r="73" spans="1:11">
@@ -2956,31 +2965,31 @@
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D73" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E73">
         <v>170.142</v>
       </c>
       <c r="F73">
-        <v>53.99435366605648</v>
+        <v>1116435.982712196</v>
       </c>
       <c r="G73">
-        <v>70.21799469863168</v>
+        <v>4841303.284603871</v>
       </c>
       <c r="H73">
-        <v>1320.142259655831</v>
+        <v>3985928.635182977</v>
       </c>
       <c r="I73">
-        <v>-832.1769184060921</v>
+        <v>1115523.270403863</v>
       </c>
       <c r="J73">
-        <v>593.4341828689352</v>
+        <v>4842343.453356456</v>
       </c>
       <c r="K73">
-        <v>2590.332873048061</v>
+        <v>3987512.127295689</v>
       </c>
     </row>
     <row r="74" spans="1:11">
@@ -2991,31 +3000,31 @@
         <v>12</v>
       </c>
       <c r="C74" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D74" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E74">
         <v>171.142</v>
       </c>
       <c r="F74">
-        <v>51.70400209768309</v>
+        <v>1116432.838525514</v>
       </c>
       <c r="G74">
-        <v>84.42038405129242</v>
+        <v>4841319.797413124</v>
       </c>
       <c r="H74">
-        <v>1342.084541016122</v>
+        <v>3985954.601671718</v>
       </c>
       <c r="I74">
-        <v>-786.6811590628026</v>
+        <v>1115569.154219814</v>
       </c>
       <c r="J74">
-        <v>567.7539821562178</v>
+        <v>4842294.80180934</v>
       </c>
       <c r="K74">
-        <v>2615.919065156236</v>
+        <v>3987543.247326375</v>
       </c>
     </row>
     <row r="75" spans="1:11">
@@ -3026,31 +3035,31 @@
         <v>12</v>
       </c>
       <c r="C75" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D75" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E75">
         <v>172.142</v>
       </c>
       <c r="F75">
-        <v>49.68183813449129</v>
+        <v>1116430.062505845</v>
       </c>
       <c r="G75">
-        <v>98.62277340395318</v>
+        <v>4841336.310222375</v>
       </c>
       <c r="H75">
-        <v>1362.277975137855</v>
+        <v>3985978.498575196</v>
       </c>
       <c r="I75">
-        <v>-740.0651085010153</v>
+        <v>1115616.16788252</v>
       </c>
       <c r="J75">
-        <v>542.0737814435006</v>
+        <v>4842246.150262224</v>
       </c>
       <c r="K75">
-        <v>2629.050395187798</v>
+        <v>3987559.218729694</v>
       </c>
     </row>
     <row r="76" spans="1:11">
@@ -3061,31 +3070,31 @@
         <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D76" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E76">
         <v>173.142</v>
       </c>
       <c r="F76">
-        <v>47.87938850664925</v>
+        <v>1116427.588109253</v>
       </c>
       <c r="G76">
-        <v>112.8251627566139</v>
+        <v>4841352.823031627</v>
       </c>
       <c r="H76">
-        <v>1380.9808742119</v>
+        <v>3986000.631579976</v>
       </c>
       <c r="I76">
-        <v>-692.3011805801242</v>
+        <v>1115664.339213418</v>
       </c>
       <c r="J76">
-        <v>516.3935807307834</v>
+        <v>4842197.498715109</v>
       </c>
       <c r="K76">
-        <v>2629.726863142746</v>
+        <v>3987560.041505644</v>
       </c>
     </row>
     <row r="77" spans="1:11">
@@ -3096,31 +3105,31 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D77" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E77">
         <v>174.142</v>
       </c>
       <c r="F77">
-        <v>46.25960285696713</v>
+        <v>1116425.364473136</v>
       </c>
       <c r="G77">
-        <v>127.0275521092747</v>
+        <v>4841369.335840879</v>
       </c>
       <c r="H77">
-        <v>1398.39823470595</v>
+        <v>3986021.243278811</v>
       </c>
       <c r="I77">
-        <v>-643.3611098761893</v>
+        <v>1115713.696719023</v>
       </c>
       <c r="J77">
-        <v>490.713380018066</v>
+        <v>4842148.847167992</v>
       </c>
       <c r="K77">
-        <v>2617.94846902108</v>
+        <v>3987545.715654225</v>
       </c>
     </row>
     <row r="78" spans="1:11">
@@ -3131,31 +3140,31 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D78" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>175.142</v>
       </c>
       <c r="F78">
-        <v>44.79361515021397</v>
+        <v>1116423.351970301</v>
       </c>
       <c r="G78">
-        <v>141.2299414619354</v>
+        <v>4841385.84865013</v>
       </c>
       <c r="H78">
-        <v>1414.695470101242</v>
+        <v>3986040.529421963</v>
       </c>
       <c r="I78">
-        <v>-593.2159349552089</v>
+        <v>1115764.269607796</v>
       </c>
       <c r="J78">
-        <v>465.0331793053488</v>
+        <v>4842100.195620877</v>
       </c>
       <c r="K78">
-        <v>2593.715212822802</v>
+        <v>3987516.241175439</v>
       </c>
     </row>
     <row r="79" spans="1:11">
@@ -3166,31 +3175,31 @@
         <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D79" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E79">
         <v>176.142</v>
       </c>
       <c r="F79">
-        <v>43.45855961180273</v>
+        <v>1116421.519210692</v>
       </c>
       <c r="G79">
-        <v>155.4323308145961</v>
+        <v>4841402.361459383</v>
       </c>
       <c r="H79">
-        <v>1430.007988370093</v>
+        <v>3986058.650251183</v>
       </c>
       <c r="I79">
-        <v>-541.8359812345147</v>
+        <v>1115816.087807428</v>
       </c>
       <c r="J79">
-        <v>439.3529785926315</v>
+        <v>4842051.544073761</v>
       </c>
       <c r="K79">
-        <v>2557.027094547909</v>
+        <v>3987471.618069284</v>
       </c>
     </row>
     <row r="80" spans="1:11">
@@ -3201,31 +3210,31 @@
         <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D80" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E80">
         <v>177.142</v>
       </c>
       <c r="F80">
-        <v>42.23605847538915</v>
+        <v>1116419.840965376</v>
       </c>
       <c r="G80">
-        <v>169.6347201672568</v>
+        <v>4841418.874268634</v>
       </c>
       <c r="H80">
-        <v>1444.448037242872</v>
+        <v>3986075.738600398</v>
       </c>
       <c r="I80">
-        <v>-489.1908434221393</v>
+        <v>1115869.181982554</v>
       </c>
       <c r="J80">
-        <v>413.6727778799142</v>
+        <v>4842002.892526644</v>
       </c>
       <c r="K80">
-        <v>2507.884114196404</v>
+        <v>3987411.846335761</v>
       </c>
     </row>
     <row r="81" spans="1:11">
@@ -3236,31 +3245,31 @@
         <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D81" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E81">
         <v>178.142</v>
       </c>
       <c r="F81">
-        <v>41.11115046774502</v>
+        <v>1116418.296695568</v>
       </c>
       <c r="G81">
-        <v>183.8371095199176</v>
+        <v>4841435.387077887</v>
       </c>
       <c r="H81">
-        <v>1458.109702309447</v>
+        <v>3986091.905810467</v>
       </c>
       <c r="I81">
-        <v>-435.2493675237729</v>
+        <v>1115923.583552897</v>
       </c>
       <c r="J81">
-        <v>387.9925771671971</v>
+        <v>4841954.240979529</v>
       </c>
       <c r="K81">
-        <v>2446.286271768284</v>
+        <v>3987336.925974871</v>
       </c>
     </row>
     <row r="82" spans="1:11">
@@ -3271,31 +3280,31 @@
         <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D82" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E82">
         <v>179.142</v>
       </c>
       <c r="F82">
-        <v>40.07151598221905</v>
+        <v>1116416.869488955</v>
       </c>
       <c r="G82">
-        <v>198.0394988725783</v>
+        <v>4841451.899887138</v>
       </c>
       <c r="H82">
-        <v>1471.072625589544</v>
+        <v>3986107.246129728</v>
       </c>
       <c r="I82">
-        <v>-379.9796324066567</v>
+        <v>1115979.324711862</v>
       </c>
       <c r="J82">
-        <v>362.3123764544798</v>
+        <v>4841905.589432414</v>
       </c>
       <c r="K82">
-        <v>2372.233567263551</v>
+        <v>3987246.856986612</v>
       </c>
     </row>
     <row r="83" spans="1:11">
@@ -3306,31 +3315,31 @@
         <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D83" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E83">
         <v>180.142</v>
       </c>
       <c r="F83">
-        <v>39.10690657576856</v>
+        <v>1116415.545276511</v>
       </c>
       <c r="G83">
-        <v>212.2418882252391</v>
+        <v>4841468.412696389</v>
       </c>
       <c r="H83">
-        <v>1483.40481857708</v>
+        <v>3986121.840042964</v>
       </c>
       <c r="I83">
-        <v>-323.3489309095054</v>
+        <v>1116036.438445585</v>
       </c>
       <c r="J83">
-        <v>336.6321757417624</v>
+        <v>4841856.937885297</v>
       </c>
       <c r="K83">
-        <v>2285.726000682205</v>
+        <v>3987141.639370985</v>
       </c>
     </row>
     <row r="84" spans="1:11">
@@ -3341,31 +3350,31 @@
         <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D84" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E84">
         <v>181.142</v>
       </c>
       <c r="F84">
-        <v>38.20871806558506</v>
+        <v>1116414.312246442</v>
       </c>
       <c r="G84">
-        <v>226.4442775778998</v>
+        <v>4841484.925505642</v>
       </c>
       <c r="H84">
-        <v>1495.164822125263</v>
+        <v>3986135.7568274</v>
       </c>
       <c r="I84">
-        <v>-265.3237504872771</v>
+        <v>1116094.958552457</v>
       </c>
       <c r="J84">
-        <v>310.9519750290452</v>
+        <v>4841808.286338181</v>
       </c>
       <c r="K84">
-        <v>2186.763572024246</v>
+        <v>3987021.273127989</v>
       </c>
     </row>
     <row r="85" spans="1:11">
@@ -3376,31 +3385,31 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D85" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E85">
         <v>182.142</v>
       </c>
       <c r="F85">
-        <v>37.3696664020476</v>
+        <v>1116413.160399231</v>
       </c>
       <c r="G85">
-        <v>240.6466669305605</v>
+        <v>4841501.438314894</v>
       </c>
       <c r="H85">
-        <v>1506.403387112762</v>
+        <v>3986149.05654161</v>
       </c>
       <c r="I85">
-        <v>-205.8697533793386</v>
+        <v>1116154.919663123</v>
       </c>
       <c r="J85">
-        <v>285.2717743163279</v>
+        <v>4841759.634791066</v>
       </c>
       <c r="K85">
-        <v>2075.346281289672</v>
+        <v>3986885.758257626</v>
       </c>
     </row>
     <row r="86" spans="1:11">
@@ -3411,31 +3420,31 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D86" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E86">
         <v>183.142</v>
       </c>
       <c r="F86">
-        <v>36.58353831742385</v>
+        <v>1116412.081205326</v>
       </c>
       <c r="G86">
-        <v>254.8490562832213</v>
+        <v>4841517.951124146</v>
       </c>
       <c r="H86">
-        <v>1517.164798078587</v>
+        <v>3986161.791591903</v>
       </c>
       <c r="I86">
-        <v>-144.9517562892912</v>
+        <v>1116216.357260976</v>
       </c>
       <c r="J86">
-        <v>259.5915736036108</v>
+        <v>4841710.98324395</v>
       </c>
       <c r="K86">
-        <v>1951.474128478485</v>
+        <v>3986735.094759894</v>
       </c>
     </row>
     <row r="87" spans="1:11">
@@ -3446,31 +3455,31 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E87">
         <v>184.142</v>
       </c>
       <c r="F87">
-        <v>35.84499719352705</v>
+        <v>1116411.067338635</v>
       </c>
       <c r="G87">
-        <v>269.051445635882</v>
+        <v>4841534.463933398</v>
       </c>
       <c r="H87">
-        <v>1527.487927143239</v>
+        <v>3986174.007979535</v>
       </c>
       <c r="I87">
-        <v>-82.53370956443089</v>
+        <v>1116279.307703155</v>
       </c>
       <c r="J87">
-        <v>233.9113728908934</v>
+        <v>4841662.331696834</v>
       </c>
       <c r="K87">
-        <v>1815.147113590685</v>
+        <v>3986569.282634794</v>
       </c>
     </row>
     <row r="88" spans="1:11">
@@ -3481,31 +3490,31 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D88" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E88">
         <v>185.142</v>
       </c>
       <c r="F88">
-        <v>35.14943026240341</v>
+        <v>1116410.112466766</v>
       </c>
       <c r="G88">
-        <v>283.2538349885428</v>
+        <v>4841550.976742649</v>
       </c>
       <c r="H88">
-        <v>1537.407081592383</v>
+        <v>3986185.746303736</v>
       </c>
       <c r="I88">
-        <v>-18.57867586252126</v>
+        <v>1116343.808242059</v>
       </c>
       <c r="J88">
-        <v>208.2311721781761</v>
+        <v>4841613.680149718</v>
       </c>
       <c r="K88">
-        <v>1666.365236626271</v>
+        <v>3986388.321882326</v>
       </c>
     </row>
     <row r="89" spans="1:11">
@@ -3516,31 +3525,31 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D89" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E89">
         <v>186.142</v>
       </c>
       <c r="F89">
-        <v>34.49282713150657</v>
+        <v>1116409.211084267</v>
       </c>
       <c r="G89">
-        <v>297.4562243412035</v>
+        <v>4841567.489551901</v>
       </c>
       <c r="H89">
-        <v>1546.952691778198</v>
+        <v>3986197.042575776</v>
       </c>
       <c r="I89">
-        <v>46.95119170674594</v>
+        <v>1116409.897047394</v>
       </c>
       <c r="J89">
-        <v>182.550971465459</v>
+        <v>4841565.028602602</v>
       </c>
       <c r="K89">
-        <v>1505.128497585244</v>
+        <v>3986192.21250249</v>
       </c>
     </row>
     <row r="90" spans="1:11">
@@ -3551,31 +3560,31 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D90" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E90">
         <v>187.142</v>
       </c>
       <c r="F90">
-        <v>33.8716823196842</v>
+        <v>1116408.358378826</v>
       </c>
       <c r="G90">
-        <v>311.6586136938642</v>
+        <v>4841584.002361153</v>
       </c>
       <c r="H90">
-        <v>1556.151874131798</v>
+        <v>3986207.928885229</v>
       </c>
       <c r="I90">
-        <v>114.0946719785335</v>
+        <v>1116477.61322876</v>
       </c>
       <c r="J90">
-        <v>156.8707707527416</v>
+        <v>4841516.377055487</v>
       </c>
       <c r="K90">
-        <v>1331.436896467603</v>
+        <v>3985980.954495286</v>
       </c>
     </row>
     <row r="91" spans="1:11">
@@ -3586,31 +3595,31 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D91" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E91">
         <v>188.142</v>
       </c>
       <c r="F91">
-        <v>33.28291639159681</v>
+        <v>1116407.550123004</v>
       </c>
       <c r="G91">
-        <v>325.861003046525</v>
+        <v>4841600.515170405</v>
       </c>
       <c r="H91">
-        <v>1565.028895544484</v>
+        <v>3986218.433949529</v>
       </c>
       <c r="I91">
-        <v>182.8914986811453</v>
+        <v>1116546.996858795</v>
       </c>
       <c r="J91">
-        <v>131.1905700400245</v>
+        <v>4841467.725508371</v>
       </c>
       <c r="K91">
-        <v>1145.290433273349</v>
+        <v>3985754.547860714</v>
       </c>
     </row>
     <row r="92" spans="1:11">
@@ -3621,31 +3630,31 @@
         <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D92" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E92">
         <v>189.142</v>
       </c>
       <c r="F92">
-        <v>32.7238116382719</v>
+        <v>1116406.782585939</v>
       </c>
       <c r="G92">
-        <v>340.0633923991857</v>
+        <v>4841617.027979657</v>
       </c>
       <c r="H92">
-        <v>1573.605559152232</v>
+        <v>3986228.583570498</v>
       </c>
       <c r="I92">
-        <v>253.3823839493881</v>
+        <v>1116618.088996887</v>
       </c>
       <c r="J92">
-        <v>105.5103693273072</v>
+        <v>4841419.073961254</v>
       </c>
       <c r="K92">
-        <v>946.689108002481</v>
+        <v>3985512.992598773</v>
       </c>
     </row>
     <row r="93" spans="1:11">
@@ -3656,31 +3665,31 @@
         <v>12</v>
       </c>
       <c r="C93" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D93" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E93">
         <v>190.142</v>
       </c>
       <c r="F93">
-        <v>32.19195923690724</v>
+        <v>1116406.052460809</v>
       </c>
       <c r="G93">
-        <v>354.2657817518464</v>
+        <v>4841633.540788909</v>
       </c>
       <c r="H93">
-        <v>1581.901526965227</v>
+        <v>3986238.401016153</v>
       </c>
       <c r="I93">
-        <v>325.6090424169368</v>
+        <v>1116690.931713477</v>
       </c>
       <c r="J93">
-        <v>79.83016861458985</v>
+        <v>4841370.422414139</v>
       </c>
       <c r="K93">
-        <v>735.6329206549998</v>
+        <v>3985256.288709464</v>
       </c>
     </row>
     <row r="94" spans="1:11">
@@ -3691,31 +3700,31 @@
         <v>12</v>
       </c>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D94" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E94">
         <v>191.142</v>
       </c>
       <c r="F94">
-        <v>31.68521554547938</v>
+        <v>1116405.356804828</v>
       </c>
       <c r="G94">
-        <v>368.4681711045072</v>
+        <v>4841650.053598161</v>
       </c>
       <c r="H94">
-        <v>1589.934591356637</v>
+        <v>3986247.907341983</v>
       </c>
       <c r="I94">
-        <v>399.6142159019403</v>
+        <v>1116765.568114948</v>
       </c>
       <c r="J94">
-        <v>54.14996790187266</v>
+        <v>4841321.770867024</v>
       </c>
       <c r="K94">
-        <v>512.1218712309054</v>
+        <v>3984984.436192788</v>
       </c>
     </row>
     <row r="95" spans="1:11">
@@ -3726,31 +3735,31 @@
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D95" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E95">
         <v>192.142</v>
       </c>
       <c r="F95">
-        <v>31.20166572321386</v>
+        <v>1116404.692989311</v>
       </c>
       <c r="G95">
-        <v>382.6705604571679</v>
+        <v>4841666.566407412</v>
       </c>
       <c r="H95">
-        <v>1597.720904840217</v>
+        <v>3986257.121662869</v>
       </c>
       <c r="I95">
-        <v>475.4416987005025</v>
+        <v>1116842.042369141</v>
       </c>
       <c r="J95">
-        <v>28.46976718915536</v>
+        <v>4841273.119319907</v>
       </c>
       <c r="K95">
-        <v>276.1559597301968</v>
+        <v>3984697.435048742</v>
       </c>
     </row>
     <row r="96" spans="1:11">
@@ -3761,31 +3770,31 @@
         <v>12</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D96" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E96">
         <v>193.142</v>
       </c>
       <c r="F96">
-        <v>30.73959326897867</v>
+        <v>1116404.05865785</v>
       </c>
       <c r="G96">
-        <v>396.8729498098287</v>
+        <v>4841683.079216665</v>
       </c>
       <c r="H96">
-        <v>1605.275175598144</v>
+        <v>3986266.061384466</v>
       </c>
       <c r="I96">
-        <v>553.1363635029735</v>
+        <v>1116920.399731488</v>
       </c>
       <c r="J96">
-        <v>2.789566476438048</v>
+        <v>4841224.467772791</v>
       </c>
       <c r="K96">
-        <v>27.7351861528749</v>
+        <v>3984395.285277329</v>
       </c>
     </row>
     <row r="97" spans="1:11">
@@ -3796,31 +3805,31 @@
         <v>12</v>
       </c>
       <c r="C97" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D97" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E97">
         <v>194.142</v>
       </c>
       <c r="F97">
-        <v>30.29745437284023</v>
+        <v>1116403.451691108</v>
       </c>
       <c r="G97">
-        <v>411.0753391624894</v>
+        <v>4841699.592025916</v>
       </c>
       <c r="H97">
-        <v>1612.61083470835</v>
+        <v>3986274.74240111</v>
       </c>
       <c r="I97">
-        <v>632.7441879484238</v>
+        <v>1117000.686571796</v>
       </c>
       <c r="J97">
-        <v>-22.89063423627914</v>
+        <v>4841175.816225676</v>
       </c>
       <c r="K97">
-        <v>-233.1404495010597</v>
+        <v>3984077.986878548</v>
       </c>
     </row>
     <row r="98" spans="1:11">
@@ -3831,31 +3840,31 @@
         <v>12</v>
       </c>
       <c r="C98" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D98" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E98">
         <v>195.142</v>
       </c>
       <c r="F98">
-        <v>29.87385620729061</v>
+        <v>1116402.870177017</v>
       </c>
       <c r="G98">
-        <v>425.2777285151501</v>
+        <v>4841716.104835168</v>
       </c>
       <c r="H98">
-        <v>1619.740179848784</v>
+        <v>3986283.179265867</v>
       </c>
       <c r="I98">
-        <v>714.3122818329882</v>
+        <v>1117082.950401685</v>
       </c>
       <c r="J98">
-        <v>-48.57083494899644</v>
+        <v>4841127.16467856</v>
       </c>
       <c r="K98">
-        <v>-506.4709472316086</v>
+        <v>3983745.539852399</v>
       </c>
     </row>
     <row r="99" spans="1:11">
@@ -3866,31 +3875,31 @@
         <v>12</v>
       </c>
       <c r="C99" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D99" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E99">
         <v>196.142</v>
       </c>
       <c r="F99">
-        <v>29.46753846255495</v>
+        <v>1116402.312385428</v>
       </c>
       <c r="G99">
-        <v>439.4801178678109</v>
+        <v>4841732.61764442</v>
       </c>
       <c r="H99">
-        <v>1626.674499340857</v>
+        <v>3986291.385337336</v>
       </c>
       <c r="I99">
-        <v>797.8889149881901</v>
+        <v>1117167.239902702</v>
       </c>
       <c r="J99">
-        <v>-74.25103566171376</v>
+        <v>4841078.513131443</v>
       </c>
       <c r="K99">
-        <v>-792.2563070387718</v>
+        <v>3983397.944198881</v>
       </c>
     </row>
     <row r="100" spans="1:11">
@@ -3901,31 +3910,31 @@
         <v>12</v>
       </c>
       <c r="C100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D100" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E100">
         <v>197.142</v>
       </c>
       <c r="F100">
-        <v>29.07735756832287</v>
+        <v>1116401.77674645</v>
       </c>
       <c r="G100">
-        <v>453.6825072204716</v>
+        <v>4841749.130453672</v>
       </c>
       <c r="H100">
-        <v>1633.424179674142</v>
+        <v>3986299.372906883</v>
       </c>
       <c r="I100">
-        <v>883.5235458457461</v>
+        <v>1117253.604955137</v>
       </c>
       <c r="J100">
-        <v>-99.93123637443105</v>
+        <v>4841029.861584328</v>
       </c>
       <c r="K100">
-        <v>-1090.496528922548</v>
+        <v>3983035.199917995</v>
       </c>
     </row>
     <row r="101" spans="1:11">
@@ -3936,31 +3945,31 @@
         <v>12</v>
       </c>
       <c r="C101" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D101" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E101">
         <v>198.142</v>
       </c>
       <c r="F101">
-        <v>28.7022731519837</v>
+        <v>1116401.261831866</v>
       </c>
       <c r="G101">
-        <v>467.8848965731323</v>
+        <v>4841765.643262924</v>
       </c>
       <c r="H101">
-        <v>1639.998799083732</v>
+        <v>3986307.153309388</v>
       </c>
       <c r="I101">
-        <v>971.2668507057531</v>
+        <v>1117342.096667535</v>
       </c>
       <c r="J101">
-        <v>-125.6114370871481</v>
+        <v>4840981.210037212</v>
       </c>
       <c r="K101">
-        <v>-1401.191612882935</v>
+        <v>3982657.307009741</v>
       </c>
     </row>
     <row r="102" spans="1:11">
@@ -3971,31 +3980,31 @@
         <v>12</v>
       </c>
       <c r="C102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D102" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E102">
         <v>199.142</v>
       </c>
       <c r="F102">
-        <v>28.34133636819208</v>
+        <v>1116400.766339102</v>
       </c>
       <c r="G102">
-        <v>482.0872859257931</v>
+        <v>4841782.156072175</v>
       </c>
       <c r="H102">
-        <v>1646.407209296454</v>
+        <v>3986314.737019983</v>
       </c>
       <c r="I102">
-        <v>1061.170753725579</v>
+        <v>1117432.767406939</v>
       </c>
       <c r="J102">
-        <v>-151.2916377998654</v>
+        <v>4840932.558490097</v>
       </c>
       <c r="K102">
-        <v>-1724.341558919938</v>
+        <v>3982264.26547412</v>
       </c>
     </row>
     <row r="103" spans="1:11">
@@ -4006,31 +4015,31 @@
         <v>12</v>
       </c>
       <c r="C103" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D103" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E103">
         <v>200.142</v>
       </c>
       <c r="F103">
-        <v>27.99367980168994</v>
+        <v>1116400.289077374</v>
       </c>
       <c r="G103">
-        <v>496.2896752784538</v>
+        <v>4841798.668881427</v>
       </c>
       <c r="H103">
-        <v>1652.657607196754</v>
+        <v>3986322.133738859</v>
       </c>
       <c r="I103">
-        <v>1153.288457647192</v>
+        <v>1117525.670829885</v>
       </c>
       <c r="J103">
-        <v>-176.9718385125827</v>
+        <v>4840883.90694298</v>
       </c>
       <c r="K103">
-        <v>-2059.946367033555</v>
+        <v>3981856.075311129</v>
       </c>
     </row>
     <row r="104" spans="1:11">
@@ -4041,31 +4050,31 @@
         <v>12</v>
       </c>
       <c r="C104" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D104" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E104">
         <v>201.142</v>
       </c>
       <c r="F104">
-        <v>27.65850869877461</v>
+        <v>1116399.828955648</v>
       </c>
       <c r="G104">
-        <v>510.4920646311145</v>
+        <v>4841815.18169068</v>
       </c>
       <c r="H104">
-        <v>1658.757597868059</v>
+        <v>3986329.352465867</v>
       </c>
       <c r="I104">
-        <v>1247.674475281142</v>
+        <v>1117620.861914152</v>
       </c>
       <c r="J104">
-        <v>-202.6520392253</v>
+        <v>4840835.255395864</v>
       </c>
       <c r="K104">
-        <v>-2408.006037223785</v>
+        <v>3981432.736520771</v>
       </c>
     </row>
     <row r="105" spans="1:11">
@@ -4076,31 +4085,31 @@
         <v>12</v>
       </c>
       <c r="C105" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D105" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E105">
         <v>202.142</v>
       </c>
       <c r="F105">
-        <v>27.33509332565537</v>
+        <v>1116399.384972146</v>
       </c>
       <c r="G105">
-        <v>524.6944539837754</v>
+        <v>4841831.694499931</v>
       </c>
       <c r="H105">
-        <v>1664.714250225888</v>
+        <v>3986336.401566362</v>
       </c>
       <c r="I105">
-        <v>1344.384661765785</v>
+        <v>1117718.396991295</v>
       </c>
       <c r="J105">
-        <v>-228.3322399380174</v>
+        <v>4840786.603848749</v>
       </c>
       <c r="K105">
-        <v>-2768.520569490628</v>
+        <v>3980994.249103044</v>
       </c>
     </row>
     <row r="106" spans="1:11">
@@ -4111,31 +4120,31 @@
         <v>12</v>
       </c>
       <c r="C106" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D106" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E106">
         <v>203.142</v>
       </c>
       <c r="F106">
-        <v>27.02276228647696</v>
+        <v>1116398.95620518</v>
       </c>
       <c r="G106">
-        <v>538.8968433364361</v>
+        <v>4841848.207309184</v>
       </c>
       <c r="H106">
-        <v>1670.534146263452</v>
+        <v>3986343.28882947</v>
       </c>
       <c r="I106">
-        <v>1443.47624762087</v>
+        <v>1117818.333779981</v>
       </c>
       <c r="J106">
-        <v>-254.0124406507344</v>
+        <v>4840737.952301634</v>
       </c>
       <c r="K106">
-        <v>-3141.489963834083</v>
+        <v>3980540.61305795</v>
       </c>
     </row>
     <row r="107" spans="1:11">
@@ -4146,31 +4155,1886 @@
         <v>12</v>
       </c>
       <c r="C107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E107">
         <v>204.142</v>
       </c>
       <c r="F107">
-        <v>26.72089666177919</v>
+        <v>1116398.541805098</v>
       </c>
       <c r="G107">
-        <v>553.0992326890968</v>
+        <v>4841864.720118435</v>
       </c>
       <c r="H107">
-        <v>1676.223424770079</v>
+        <v>3986350.021519834</v>
       </c>
       <c r="I107">
-        <v>1545.00787261505</v>
+        <v>1117920.731420149</v>
       </c>
       <c r="J107">
-        <v>-279.6926413634517</v>
+        <v>4840689.300754516</v>
       </c>
       <c r="K107">
-        <v>-3526.914220254153</v>
+        <v>3980071.828385487</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
+      <c r="A108">
+        <v>67</v>
+      </c>
+      <c r="B108" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" t="s">
+        <v>16</v>
+      </c>
+      <c r="D108" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108">
+        <v>152.142</v>
+      </c>
+      <c r="F108">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G108">
+        <v>4841115.592714929</v>
+      </c>
+      <c r="H108">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I108">
+        <v>1114862.09827516</v>
+      </c>
+      <c r="J108">
+        <v>4843222.292644259</v>
+      </c>
+      <c r="K108">
+        <v>3984375.164077497</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
+      <c r="A109">
+        <v>67</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" t="s">
+        <v>19</v>
+      </c>
+      <c r="E109">
+        <v>153.142</v>
+      </c>
+      <c r="F109">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G109">
+        <v>4841115.592714929</v>
+      </c>
+      <c r="H109">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I109">
+        <v>1114891.712291303</v>
+      </c>
+      <c r="J109">
+        <v>4843173.641065888</v>
+      </c>
+      <c r="K109">
+        <v>3984678.96043873</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
+      <c r="A110">
+        <v>67</v>
+      </c>
+      <c r="B110" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" t="s">
+        <v>16</v>
+      </c>
+      <c r="D110" t="s">
+        <v>19</v>
+      </c>
+      <c r="E110">
+        <v>154.142</v>
+      </c>
+      <c r="F110">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G110">
+        <v>4841115.592714929</v>
+      </c>
+      <c r="H110">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I110">
+        <v>1114922.055525349</v>
+      </c>
+      <c r="J110">
+        <v>4843124.989487516</v>
+      </c>
+      <c r="K110">
+        <v>3984967.60812084</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
+      <c r="A111">
+        <v>67</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111" t="s">
+        <v>16</v>
+      </c>
+      <c r="D111" t="s">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>155.142</v>
+      </c>
+      <c r="F111">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G111">
+        <v>4841115.592714929</v>
+      </c>
+      <c r="H111">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I111">
+        <v>1114953.145933618</v>
+      </c>
+      <c r="J111">
+        <v>4843076.337909145</v>
+      </c>
+      <c r="K111">
+        <v>3985241.107123825</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
+      <c r="A112">
+        <v>67</v>
+      </c>
+      <c r="B112" t="s">
+        <v>13</v>
+      </c>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" t="s">
+        <v>19</v>
+      </c>
+      <c r="E112">
+        <v>156.142</v>
+      </c>
+      <c r="F112">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G112">
+        <v>4841115.592714929</v>
+      </c>
+      <c r="H112">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I112">
+        <v>1114985.001914588</v>
+      </c>
+      <c r="J112">
+        <v>4843027.686330774</v>
+      </c>
+      <c r="K112">
+        <v>3985499.457447687</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113">
+        <v>67</v>
+      </c>
+      <c r="B113" t="s">
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>16</v>
+      </c>
+      <c r="D113" t="s">
+        <v>19</v>
+      </c>
+      <c r="E113">
+        <v>157.142</v>
+      </c>
+      <c r="F113">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G113">
+        <v>4841115.592714929</v>
+      </c>
+      <c r="H113">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I113">
+        <v>1115017.642319783</v>
+      </c>
+      <c r="J113">
+        <v>4842979.034752403</v>
+      </c>
+      <c r="K113">
+        <v>3985742.659092426</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114">
+        <v>67</v>
+      </c>
+      <c r="B114" t="s">
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>16</v>
+      </c>
+      <c r="D114" t="s">
+        <v>19</v>
+      </c>
+      <c r="E114">
+        <v>158.142</v>
+      </c>
+      <c r="F114">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G114">
+        <v>4841115.592714929</v>
+      </c>
+      <c r="H114">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I114">
+        <v>1115051.086464927</v>
+      </c>
+      <c r="J114">
+        <v>4842930.383174031</v>
+      </c>
+      <c r="K114">
+        <v>3985970.712058041</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115">
+        <v>67</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>16</v>
+      </c>
+      <c r="D115" t="s">
+        <v>19</v>
+      </c>
+      <c r="E115">
+        <v>159.142</v>
+      </c>
+      <c r="F115">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G115">
+        <v>4841115.592714929</v>
+      </c>
+      <c r="H115">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I115">
+        <v>1115085.354141377</v>
+      </c>
+      <c r="J115">
+        <v>4842881.731595661</v>
+      </c>
+      <c r="K115">
+        <v>3986183.616344532</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116">
+        <v>67</v>
+      </c>
+      <c r="B116" t="s">
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116" t="s">
+        <v>19</v>
+      </c>
+      <c r="E116">
+        <v>160.142</v>
+      </c>
+      <c r="F116">
+        <v>1116578.499794747</v>
+      </c>
+      <c r="G116">
+        <v>4841132.105503542</v>
+      </c>
+      <c r="H116">
+        <v>3985231.303594996</v>
+      </c>
+      <c r="I116">
+        <v>1115120.465627834</v>
+      </c>
+      <c r="J116">
+        <v>4842833.080017289</v>
+      </c>
+      <c r="K116">
+        <v>3986381.371951899</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117">
+        <v>67</v>
+      </c>
+      <c r="B117" t="s">
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>16</v>
+      </c>
+      <c r="D117" t="s">
+        <v>19</v>
+      </c>
+      <c r="E117">
+        <v>161.142</v>
+      </c>
+      <c r="F117">
+        <v>1116529.819231154</v>
+      </c>
+      <c r="G117">
+        <v>4841148.618292154</v>
+      </c>
+      <c r="H117">
+        <v>3985430.558150527</v>
+      </c>
+      <c r="I117">
+        <v>1115156.441702343</v>
+      </c>
+      <c r="J117">
+        <v>4842784.428438919</v>
+      </c>
+      <c r="K117">
+        <v>3986563.978880144</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118">
+        <v>67</v>
+      </c>
+      <c r="B118" t="s">
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>16</v>
+      </c>
+      <c r="D118" t="s">
+        <v>19</v>
+      </c>
+      <c r="E118">
+        <v>162.142</v>
+      </c>
+      <c r="F118">
+        <v>1116501.221842124</v>
+      </c>
+      <c r="G118">
+        <v>4841165.131080766</v>
+      </c>
+      <c r="H118">
+        <v>3985549.244354066</v>
+      </c>
+      <c r="I118">
+        <v>1115193.303654589</v>
+      </c>
+      <c r="J118">
+        <v>4842735.776860546</v>
+      </c>
+      <c r="K118">
+        <v>3986731.437129265</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119">
+        <v>67</v>
+      </c>
+      <c r="B119" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>16</v>
+      </c>
+      <c r="D119" t="s">
+        <v>19</v>
+      </c>
+      <c r="E119">
+        <v>163.142</v>
+      </c>
+      <c r="F119">
+        <v>1116483.169072157</v>
+      </c>
+      <c r="G119">
+        <v>4841181.643869379</v>
+      </c>
+      <c r="H119">
+        <v>3985634.061362042</v>
+      </c>
+      <c r="I119">
+        <v>1115231.073298497</v>
+      </c>
+      <c r="J119">
+        <v>4842687.125282176</v>
+      </c>
+      <c r="K119">
+        <v>3986883.746699261</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120">
+        <v>67</v>
+      </c>
+      <c r="B120" t="s">
+        <v>13</v>
+      </c>
+      <c r="C120" t="s">
+        <v>16</v>
+      </c>
+      <c r="D120" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120">
+        <v>164.142</v>
+      </c>
+      <c r="F120">
+        <v>1116470.579143664</v>
+      </c>
+      <c r="G120">
+        <v>4841198.156657991</v>
+      </c>
+      <c r="H120">
+        <v>3985700.108320712</v>
+      </c>
+      <c r="I120">
+        <v>1115269.772985139</v>
+      </c>
+      <c r="J120">
+        <v>4842638.473703804</v>
+      </c>
+      <c r="K120">
+        <v>3987020.907590135</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121">
+        <v>67</v>
+      </c>
+      <c r="B121" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" t="s">
+        <v>16</v>
+      </c>
+      <c r="D121" t="s">
+        <v>19</v>
+      </c>
+      <c r="E121">
+        <v>165.142</v>
+      </c>
+      <c r="F121">
+        <v>1116461.186679982</v>
+      </c>
+      <c r="G121">
+        <v>4841214.669446603</v>
+      </c>
+      <c r="H121">
+        <v>3985754.205902932</v>
+      </c>
+      <c r="I121">
+        <v>1115309.425615961</v>
+      </c>
+      <c r="J121">
+        <v>4842589.822125434</v>
+      </c>
+      <c r="K121">
+        <v>3987142.919801885</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122">
+        <v>67</v>
+      </c>
+      <c r="B122" t="s">
+        <v>13</v>
+      </c>
+      <c r="C122" t="s">
+        <v>16</v>
+      </c>
+      <c r="D122" t="s">
+        <v>19</v>
+      </c>
+      <c r="E122">
+        <v>166.142</v>
+      </c>
+      <c r="F122">
+        <v>1116453.843085001</v>
+      </c>
+      <c r="G122">
+        <v>4841231.182235215</v>
+      </c>
+      <c r="H122">
+        <v>3985800.02260614</v>
+      </c>
+      <c r="I122">
+        <v>1115350.054656338</v>
+      </c>
+      <c r="J122">
+        <v>4842541.170547062</v>
+      </c>
+      <c r="K122">
+        <v>3987249.783334511</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123">
+        <v>67</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123" t="s">
+        <v>16</v>
+      </c>
+      <c r="D123" t="s">
+        <v>19</v>
+      </c>
+      <c r="E123">
+        <v>167.142</v>
+      </c>
+      <c r="F123">
+        <v>1116447.901581957</v>
+      </c>
+      <c r="G123">
+        <v>4841247.695023827</v>
+      </c>
+      <c r="H123">
+        <v>3985839.760251707</v>
+      </c>
+      <c r="I123">
+        <v>1115391.684149456</v>
+      </c>
+      <c r="J123">
+        <v>4842492.518968691</v>
+      </c>
+      <c r="K123">
+        <v>3987341.498188013</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124">
+        <v>67</v>
+      </c>
+      <c r="B124" t="s">
+        <v>13</v>
+      </c>
+      <c r="C124" t="s">
+        <v>16</v>
+      </c>
+      <c r="D124" t="s">
+        <v>19</v>
+      </c>
+      <c r="E124">
+        <v>168.142</v>
+      </c>
+      <c r="F124">
+        <v>1116442.968017354</v>
+      </c>
+      <c r="G124">
+        <v>4841264.207812441</v>
+      </c>
+      <c r="H124">
+        <v>3985874.844660556</v>
+      </c>
+      <c r="I124">
+        <v>1115434.338730543</v>
+      </c>
+      <c r="J124">
+        <v>4842443.86739032</v>
+      </c>
+      <c r="K124">
+        <v>3987418.064362392</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
+      <c r="A125">
+        <v>67</v>
+      </c>
+      <c r="B125" t="s">
+        <v>13</v>
+      </c>
+      <c r="C125" t="s">
+        <v>16</v>
+      </c>
+      <c r="D125" t="s">
+        <v>19</v>
+      </c>
+      <c r="E125">
+        <v>169.142</v>
+      </c>
+      <c r="F125">
+        <v>1116438.787192558</v>
+      </c>
+      <c r="G125">
+        <v>4841280.720601052</v>
+      </c>
+      <c r="H125">
+        <v>3985906.252266473</v>
+      </c>
+      <c r="I125">
+        <v>1115478.043641448</v>
+      </c>
+      <c r="J125">
+        <v>4842395.215811949</v>
+      </c>
+      <c r="K125">
+        <v>3987479.481857648</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
+      <c r="A126">
+        <v>67</v>
+      </c>
+      <c r="B126" t="s">
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>16</v>
+      </c>
+      <c r="D126" t="s">
+        <v>19</v>
+      </c>
+      <c r="E126">
+        <v>170.142</v>
+      </c>
+      <c r="F126">
+        <v>1116435.185819879</v>
+      </c>
+      <c r="G126">
+        <v>4841297.233389664</v>
+      </c>
+      <c r="H126">
+        <v>3985934.681138062</v>
+      </c>
+      <c r="I126">
+        <v>1115522.824745577</v>
+      </c>
+      <c r="J126">
+        <v>4842346.564233578</v>
+      </c>
+      <c r="K126">
+        <v>3987525.750673779</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
+      <c r="A127">
+        <v>67</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>16</v>
+      </c>
+      <c r="D127" t="s">
+        <v>19</v>
+      </c>
+      <c r="E127">
+        <v>171.142</v>
+      </c>
+      <c r="F127">
+        <v>1116432.041635441</v>
+      </c>
+      <c r="G127">
+        <v>4841313.746178277</v>
+      </c>
+      <c r="H127">
+        <v>3985960.64766619</v>
+      </c>
+      <c r="I127">
+        <v>1115568.708543197</v>
+      </c>
+      <c r="J127">
+        <v>4842297.912655206</v>
+      </c>
+      <c r="K127">
+        <v>3987556.870810787</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128">
+        <v>67</v>
+      </c>
+      <c r="B128" t="s">
+        <v>13</v>
+      </c>
+      <c r="C128" t="s">
+        <v>16</v>
+      </c>
+      <c r="D128" t="s">
+        <v>19</v>
+      </c>
+      <c r="E128">
+        <v>172.142</v>
+      </c>
+      <c r="F128">
+        <v>1116429.265617754</v>
+      </c>
+      <c r="G128">
+        <v>4841330.258966889</v>
+      </c>
+      <c r="H128">
+        <v>3985984.544605915</v>
+      </c>
+      <c r="I128">
+        <v>1115615.722187121</v>
+      </c>
+      <c r="J128">
+        <v>4842249.261076836</v>
+      </c>
+      <c r="K128">
+        <v>3987572.842268672</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11">
+      <c r="A129">
+        <v>67</v>
+      </c>
+      <c r="B129" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" t="s">
+        <v>16</v>
+      </c>
+      <c r="D129" t="s">
+        <v>19</v>
+      </c>
+      <c r="E129">
+        <v>173.142</v>
+      </c>
+      <c r="F129">
+        <v>1116426.791222928</v>
+      </c>
+      <c r="G129">
+        <v>4841346.771755502</v>
+      </c>
+      <c r="H129">
+        <v>3986006.677644267</v>
+      </c>
+      <c r="I129">
+        <v>1115663.893498774</v>
+      </c>
+      <c r="J129">
+        <v>4842200.609498465</v>
+      </c>
+      <c r="K129">
+        <v>3987573.665047433</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
+      <c r="A130">
+        <v>67</v>
+      </c>
+      <c r="B130" t="s">
+        <v>13</v>
+      </c>
+      <c r="C130" t="s">
+        <v>16</v>
+      </c>
+      <c r="D130" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130">
+        <v>174.142</v>
+      </c>
+      <c r="F130">
+        <v>1116424.567588398</v>
+      </c>
+      <c r="G130">
+        <v>4841363.284544114</v>
+      </c>
+      <c r="H130">
+        <v>3986027.289374366</v>
+      </c>
+      <c r="I130">
+        <v>1115713.250984661</v>
+      </c>
+      <c r="J130">
+        <v>4842151.957920093</v>
+      </c>
+      <c r="K130">
+        <v>3987559.33914707</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
+      <c r="A131">
+        <v>67</v>
+      </c>
+      <c r="B131" t="s">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s">
+        <v>16</v>
+      </c>
+      <c r="D131" t="s">
+        <v>19</v>
+      </c>
+      <c r="E131">
+        <v>175.142</v>
+      </c>
+      <c r="F131">
+        <v>1116422.555087</v>
+      </c>
+      <c r="G131">
+        <v>4841379.797332725</v>
+      </c>
+      <c r="H131">
+        <v>3986046.575546772</v>
+      </c>
+      <c r="I131">
+        <v>1115763.823853229</v>
+      </c>
+      <c r="J131">
+        <v>4842103.306341722</v>
+      </c>
+      <c r="K131">
+        <v>3987529.864567583</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
+      <c r="A132">
+        <v>67</v>
+      </c>
+      <c r="B132" t="s">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s">
+        <v>16</v>
+      </c>
+      <c r="D132" t="s">
+        <v>19</v>
+      </c>
+      <c r="E132">
+        <v>176.142</v>
+      </c>
+      <c r="F132">
+        <v>1116420.722328699</v>
+      </c>
+      <c r="G132">
+        <v>4841396.310121339</v>
+      </c>
+      <c r="H132">
+        <v>3986064.696403478</v>
+      </c>
+      <c r="I132">
+        <v>1115815.64203216</v>
+      </c>
+      <c r="J132">
+        <v>4842054.654763351</v>
+      </c>
+      <c r="K132">
+        <v>3987485.241308974</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
+      <c r="A133">
+        <v>67</v>
+      </c>
+      <c r="B133" t="s">
+        <v>13</v>
+      </c>
+      <c r="C133" t="s">
+        <v>16</v>
+      </c>
+      <c r="D133" t="s">
+        <v>19</v>
+      </c>
+      <c r="E133">
+        <v>177.142</v>
+      </c>
+      <c r="F133">
+        <v>1116419.044084581</v>
+      </c>
+      <c r="G133">
+        <v>4841412.82290995</v>
+      </c>
+      <c r="H133">
+        <v>3986081.784778613</v>
+      </c>
+      <c r="I133">
+        <v>1115868.736186075</v>
+      </c>
+      <c r="J133">
+        <v>4842006.003184979</v>
+      </c>
+      <c r="K133">
+        <v>3987425.46937124</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
+      <c r="A134">
+        <v>67</v>
+      </c>
+      <c r="B134" t="s">
+        <v>13</v>
+      </c>
+      <c r="C134" t="s">
+        <v>16</v>
+      </c>
+      <c r="D134" t="s">
+        <v>19</v>
+      </c>
+      <c r="E134">
+        <v>178.142</v>
+      </c>
+      <c r="F134">
+        <v>1116417.499815876</v>
+      </c>
+      <c r="G134">
+        <v>4841429.335698563</v>
+      </c>
+      <c r="H134">
+        <v>3986097.952013205</v>
+      </c>
+      <c r="I134">
+        <v>1115923.137734684</v>
+      </c>
+      <c r="J134">
+        <v>4841957.351606608</v>
+      </c>
+      <c r="K134">
+        <v>3987350.548754383</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
+      <c r="A135">
+        <v>67</v>
+      </c>
+      <c r="B135" t="s">
+        <v>13</v>
+      </c>
+      <c r="C135" t="s">
+        <v>16</v>
+      </c>
+      <c r="D135" t="s">
+        <v>19</v>
+      </c>
+      <c r="E135">
+        <v>179.142</v>
+      </c>
+      <c r="F135">
+        <v>1116416.072610281</v>
+      </c>
+      <c r="G135">
+        <v>4841445.848487175</v>
+      </c>
+      <c r="H135">
+        <v>3986113.292355735</v>
+      </c>
+      <c r="I135">
+        <v>1115978.878871379</v>
+      </c>
+      <c r="J135">
+        <v>4841908.700028237</v>
+      </c>
+      <c r="K135">
+        <v>3987260.479458403</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
+      <c r="A136">
+        <v>67</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136" t="s">
+        <v>16</v>
+      </c>
+      <c r="D136" t="s">
+        <v>19</v>
+      </c>
+      <c r="E136">
+        <v>180.142</v>
+      </c>
+      <c r="F136">
+        <v>1116414.748398782</v>
+      </c>
+      <c r="G136">
+        <v>4841462.361275787</v>
+      </c>
+      <c r="H136">
+        <v>3986127.886291107</v>
+      </c>
+      <c r="I136">
+        <v>1116035.992582285</v>
+      </c>
+      <c r="J136">
+        <v>4841860.048449866</v>
+      </c>
+      <c r="K136">
+        <v>3987155.261483299</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
+      <c r="A137">
+        <v>67</v>
+      </c>
+      <c r="B137" t="s">
+        <v>13</v>
+      </c>
+      <c r="C137" t="s">
+        <v>16</v>
+      </c>
+      <c r="D137" t="s">
+        <v>19</v>
+      </c>
+      <c r="E137">
+        <v>181.142</v>
+      </c>
+      <c r="F137">
+        <v>1116413.515369593</v>
+      </c>
+      <c r="G137">
+        <v>4841478.8740644</v>
+      </c>
+      <c r="H137">
+        <v>3986141.803096652</v>
+      </c>
+      <c r="I137">
+        <v>1116094.512665778</v>
+      </c>
+      <c r="J137">
+        <v>4841811.396871494</v>
+      </c>
+      <c r="K137">
+        <v>3987034.894829071</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
+      <c r="A138">
+        <v>67</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="C138" t="s">
+        <v>16</v>
+      </c>
+      <c r="D138" t="s">
+        <v>19</v>
+      </c>
+      <c r="E138">
+        <v>182.142</v>
+      </c>
+      <c r="F138">
+        <v>1116412.363523205</v>
+      </c>
+      <c r="G138">
+        <v>4841495.386853012</v>
+      </c>
+      <c r="H138">
+        <v>3986155.102831035</v>
+      </c>
+      <c r="I138">
+        <v>1116154.473752489</v>
+      </c>
+      <c r="J138">
+        <v>4841762.745293124</v>
+      </c>
+      <c r="K138">
+        <v>3986899.379495719</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
+      <c r="A139">
+        <v>67</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139" t="s">
+        <v>16</v>
+      </c>
+      <c r="D139" t="s">
+        <v>19</v>
+      </c>
+      <c r="E139">
+        <v>183.142</v>
+      </c>
+      <c r="F139">
+        <v>1116411.284330069</v>
+      </c>
+      <c r="G139">
+        <v>4841511.899641624</v>
+      </c>
+      <c r="H139">
+        <v>3986167.837900646</v>
+      </c>
+      <c r="I139">
+        <v>1116215.911325798</v>
+      </c>
+      <c r="J139">
+        <v>4841714.093714752</v>
+      </c>
+      <c r="K139">
+        <v>3986748.715483244</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
+      <c r="A140">
+        <v>67</v>
+      </c>
+      <c r="B140" t="s">
+        <v>13</v>
+      </c>
+      <c r="C140" t="s">
+        <v>16</v>
+      </c>
+      <c r="D140" t="s">
+        <v>19</v>
+      </c>
+      <c r="E140">
+        <v>184.142</v>
+      </c>
+      <c r="F140">
+        <v>1116410.270464102</v>
+      </c>
+      <c r="G140">
+        <v>4841528.412430236</v>
+      </c>
+      <c r="H140">
+        <v>3986180.054306807</v>
+      </c>
+      <c r="I140">
+        <v>1116278.861742828</v>
+      </c>
+      <c r="J140">
+        <v>4841665.442136382</v>
+      </c>
+      <c r="K140">
+        <v>3986582.902791645</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
+      <c r="A141">
+        <v>67</v>
+      </c>
+      <c r="B141" t="s">
+        <v>13</v>
+      </c>
+      <c r="C141" t="s">
+        <v>16</v>
+      </c>
+      <c r="D141" t="s">
+        <v>19</v>
+      </c>
+      <c r="E141">
+        <v>185.142</v>
+      </c>
+      <c r="F141">
+        <v>1116409.315592915</v>
+      </c>
+      <c r="G141">
+        <v>4841544.925218849</v>
+      </c>
+      <c r="H141">
+        <v>3986191.792648814</v>
+      </c>
+      <c r="I141">
+        <v>1116343.362255963</v>
+      </c>
+      <c r="J141">
+        <v>4841616.790558009</v>
+      </c>
+      <c r="K141">
+        <v>3986401.941420923</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
+      <c r="A142">
+        <v>67</v>
+      </c>
+      <c r="B142" t="s">
+        <v>13</v>
+      </c>
+      <c r="C142" t="s">
+        <v>16</v>
+      </c>
+      <c r="D142" t="s">
+        <v>19</v>
+      </c>
+      <c r="E142">
+        <v>186.142</v>
+      </c>
+      <c r="F142">
+        <v>1116408.41421106</v>
+      </c>
+      <c r="G142">
+        <v>4841561.438007461</v>
+      </c>
+      <c r="H142">
+        <v>3986203.088937988</v>
+      </c>
+      <c r="I142">
+        <v>1116409.451034896</v>
+      </c>
+      <c r="J142">
+        <v>4841568.138979639</v>
+      </c>
+      <c r="K142">
+        <v>3986205.831371077</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
+      <c r="A143">
+        <v>67</v>
+      </c>
+      <c r="B143" t="s">
+        <v>13</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" t="s">
+        <v>19</v>
+      </c>
+      <c r="E143">
+        <v>187.142</v>
+      </c>
+      <c r="F143">
+        <v>1116407.561506227</v>
+      </c>
+      <c r="G143">
+        <v>4841577.950796073</v>
+      </c>
+      <c r="H143">
+        <v>3986213.975263954</v>
+      </c>
+      <c r="I143">
+        <v>1116477.167189209</v>
+      </c>
+      <c r="J143">
+        <v>4841519.487401268</v>
+      </c>
+      <c r="K143">
+        <v>3985994.572642107</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
+      <c r="A144">
+        <v>67</v>
+      </c>
+      <c r="B144" t="s">
+        <v>13</v>
+      </c>
+      <c r="C144" t="s">
+        <v>16</v>
+      </c>
+      <c r="D144" t="s">
+        <v>19</v>
+      </c>
+      <c r="E144">
+        <v>188.142</v>
+      </c>
+      <c r="F144">
+        <v>1116406.753250982</v>
+      </c>
+      <c r="G144">
+        <v>4841594.463584685</v>
+      </c>
+      <c r="H144">
+        <v>3986224.480344188</v>
+      </c>
+      <c r="I144">
+        <v>1116546.550791524</v>
+      </c>
+      <c r="J144">
+        <v>4841470.835822897</v>
+      </c>
+      <c r="K144">
+        <v>3985768.165234014</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
+      <c r="A145">
+        <v>67</v>
+      </c>
+      <c r="B145" t="s">
+        <v>13</v>
+      </c>
+      <c r="C145" t="s">
+        <v>16</v>
+      </c>
+      <c r="D145" t="s">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>189.142</v>
+      </c>
+      <c r="F145">
+        <v>1116405.985714465</v>
+      </c>
+      <c r="G145">
+        <v>4841610.976373298</v>
+      </c>
+      <c r="H145">
+        <v>3986234.629980552</v>
+      </c>
+      <c r="I145">
+        <v>1116617.642901215</v>
+      </c>
+      <c r="J145">
+        <v>4841422.184244526</v>
+      </c>
+      <c r="K145">
+        <v>3985526.609146798</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
+      <c r="A146">
+        <v>67</v>
+      </c>
+      <c r="B146" t="s">
+        <v>13</v>
+      </c>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" t="s">
+        <v>19</v>
+      </c>
+      <c r="E146">
+        <v>190.142</v>
+      </c>
+      <c r="F146">
+        <v>1116405.255589856</v>
+      </c>
+      <c r="G146">
+        <v>4841627.48916191</v>
+      </c>
+      <c r="H146">
+        <v>3986244.447441099</v>
+      </c>
+      <c r="I146">
+        <v>1116690.485588703</v>
+      </c>
+      <c r="J146">
+        <v>4841373.532666154</v>
+      </c>
+      <c r="K146">
+        <v>3985269.904380457</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
+      <c r="A147">
+        <v>67</v>
+      </c>
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>16</v>
+      </c>
+      <c r="D147" t="s">
+        <v>19</v>
+      </c>
+      <c r="E147">
+        <v>191.142</v>
+      </c>
+      <c r="F147">
+        <v>1116404.559934372</v>
+      </c>
+      <c r="G147">
+        <v>4841644.001950522</v>
+      </c>
+      <c r="H147">
+        <v>3986253.953781348</v>
+      </c>
+      <c r="I147">
+        <v>1116765.121960356</v>
+      </c>
+      <c r="J147">
+        <v>4841324.881087784</v>
+      </c>
+      <c r="K147">
+        <v>3984998.050934994</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
+      <c r="A148">
+        <v>67</v>
+      </c>
+      <c r="B148" t="s">
+        <v>13</v>
+      </c>
+      <c r="C148" t="s">
+        <v>16</v>
+      </c>
+      <c r="D148" t="s">
+        <v>19</v>
+      </c>
+      <c r="E148">
+        <v>192.142</v>
+      </c>
+      <c r="F148">
+        <v>1116403.896119328</v>
+      </c>
+      <c r="G148">
+        <v>4841660.514739134</v>
+      </c>
+      <c r="H148">
+        <v>3986263.16811621</v>
+      </c>
+      <c r="I148">
+        <v>1116841.596183997</v>
+      </c>
+      <c r="J148">
+        <v>4841276.229509412</v>
+      </c>
+      <c r="K148">
+        <v>3984711.048810406</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11">
+      <c r="A149">
+        <v>67</v>
+      </c>
+      <c r="B149" t="s">
+        <v>13</v>
+      </c>
+      <c r="C149" t="s">
+        <v>16</v>
+      </c>
+      <c r="D149" t="s">
+        <v>19</v>
+      </c>
+      <c r="E149">
+        <v>193.142</v>
+      </c>
+      <c r="F149">
+        <v>1116403.26178832</v>
+      </c>
+      <c r="G149">
+        <v>4841677.027527748</v>
+      </c>
+      <c r="H149">
+        <v>3986272.107851368</v>
+      </c>
+      <c r="I149">
+        <v>1116919.953515041</v>
+      </c>
+      <c r="J149">
+        <v>4841227.577931041</v>
+      </c>
+      <c r="K149">
+        <v>3984408.898006695</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11">
+      <c r="A150">
+        <v>67</v>
+      </c>
+      <c r="B150" t="s">
+        <v>13</v>
+      </c>
+      <c r="C150" t="s">
+        <v>16</v>
+      </c>
+      <c r="D150" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150">
+        <v>194.142</v>
+      </c>
+      <c r="F150">
+        <v>1116402.654822011</v>
+      </c>
+      <c r="G150">
+        <v>4841693.540316359</v>
+      </c>
+      <c r="H150">
+        <v>3986280.788881179</v>
+      </c>
+      <c r="I150">
+        <v>1117000.240323274</v>
+      </c>
+      <c r="J150">
+        <v>4841178.926352669</v>
+      </c>
+      <c r="K150">
+        <v>3984091.59852386</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11">
+      <c r="A151">
+        <v>67</v>
+      </c>
+      <c r="B151" t="s">
+        <v>13</v>
+      </c>
+      <c r="C151" t="s">
+        <v>16</v>
+      </c>
+      <c r="D151" t="s">
+        <v>19</v>
+      </c>
+      <c r="E151">
+        <v>195.142</v>
+      </c>
+      <c r="F151">
+        <v>1116402.073308335</v>
+      </c>
+      <c r="G151">
+        <v>4841710.053104972</v>
+      </c>
+      <c r="H151">
+        <v>3986289.225758734</v>
+      </c>
+      <c r="I151">
+        <v>1117082.504120297</v>
+      </c>
+      <c r="J151">
+        <v>4841130.274774299</v>
+      </c>
+      <c r="K151">
+        <v>3983759.150361902</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11">
+      <c r="A152">
+        <v>67</v>
+      </c>
+      <c r="B152" t="s">
+        <v>13</v>
+      </c>
+      <c r="C152" t="s">
+        <v>16</v>
+      </c>
+      <c r="D152" t="s">
+        <v>19</v>
+      </c>
+      <c r="E152">
+        <v>196.142</v>
+      </c>
+      <c r="F152">
+        <v>1116401.515517144</v>
+      </c>
+      <c r="G152">
+        <v>4841726.565893583</v>
+      </c>
+      <c r="H152">
+        <v>3986297.431842649</v>
+      </c>
+      <c r="I152">
+        <v>1117166.793587641</v>
+      </c>
+      <c r="J152">
+        <v>4841081.623195927</v>
+      </c>
+      <c r="K152">
+        <v>3983411.55352082</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11">
+      <c r="A153">
+        <v>67</v>
+      </c>
+      <c r="B153" t="s">
+        <v>13</v>
+      </c>
+      <c r="C153" t="s">
+        <v>16</v>
+      </c>
+      <c r="D153" t="s">
+        <v>19</v>
+      </c>
+      <c r="E153">
+        <v>197.142</v>
+      </c>
+      <c r="F153">
+        <v>1116400.979878549</v>
+      </c>
+      <c r="G153">
+        <v>4841743.078682196</v>
+      </c>
+      <c r="H153">
+        <v>3986305.419424312</v>
+      </c>
+      <c r="I153">
+        <v>1117253.158605573</v>
+      </c>
+      <c r="J153">
+        <v>4841032.971617556</v>
+      </c>
+      <c r="K153">
+        <v>3983048.808000615</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11">
+      <c r="A154">
+        <v>67</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154" t="s">
+        <v>16</v>
+      </c>
+      <c r="D154" t="s">
+        <v>19</v>
+      </c>
+      <c r="E154">
+        <v>198.142</v>
+      </c>
+      <c r="F154">
+        <v>1116400.464964332</v>
+      </c>
+      <c r="G154">
+        <v>4841759.591470809</v>
+      </c>
+      <c r="H154">
+        <v>3986313.199838619</v>
+      </c>
+      <c r="I154">
+        <v>1117341.650282617</v>
+      </c>
+      <c r="J154">
+        <v>4840984.320039185</v>
+      </c>
+      <c r="K154">
+        <v>3982670.913801285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11">
+      <c r="A155">
+        <v>67</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>16</v>
+      </c>
+      <c r="D155" t="s">
+        <v>19</v>
+      </c>
+      <c r="E155">
+        <v>199.142</v>
+      </c>
+      <c r="F155">
+        <v>1116399.969471922</v>
+      </c>
+      <c r="G155">
+        <v>4841776.10425942</v>
+      </c>
+      <c r="H155">
+        <v>3986320.783560717</v>
+      </c>
+      <c r="I155">
+        <v>1117432.320985797</v>
+      </c>
+      <c r="J155">
+        <v>4840935.668460814</v>
+      </c>
+      <c r="K155">
+        <v>3982277.870922833</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11">
+      <c r="A156">
+        <v>67</v>
+      </c>
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>16</v>
+      </c>
+      <c r="D156" t="s">
+        <v>19</v>
+      </c>
+      <c r="E156">
+        <v>200.142</v>
+      </c>
+      <c r="F156">
+        <v>1116399.492210535</v>
+      </c>
+      <c r="G156">
+        <v>4841792.617048033</v>
+      </c>
+      <c r="H156">
+        <v>3986328.180290812</v>
+      </c>
+      <c r="I156">
+        <v>1117525.224371628</v>
+      </c>
+      <c r="J156">
+        <v>4840887.016882442</v>
+      </c>
+      <c r="K156">
+        <v>3981869.679365256</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11">
+      <c r="A157">
+        <v>67</v>
+      </c>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>16</v>
+      </c>
+      <c r="D157" t="s">
+        <v>19</v>
+      </c>
+      <c r="E157">
+        <v>201.142</v>
+      </c>
+      <c r="F157">
+        <v>1116399.032089137</v>
+      </c>
+      <c r="G157">
+        <v>4841809.129836646</v>
+      </c>
+      <c r="H157">
+        <v>3986335.39902877</v>
+      </c>
+      <c r="I157">
+        <v>1117620.415417866</v>
+      </c>
+      <c r="J157">
+        <v>4840838.365304071</v>
+      </c>
+      <c r="K157">
+        <v>3981446.339128557</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11">
+      <c r="A158">
+        <v>67</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>16</v>
+      </c>
+      <c r="D158" t="s">
+        <v>19</v>
+      </c>
+      <c r="E158">
+        <v>202.142</v>
+      </c>
+      <c r="F158">
+        <v>1116398.588105952</v>
+      </c>
+      <c r="G158">
+        <v>4841825.642625257</v>
+      </c>
+      <c r="H158">
+        <v>3986342.448139957</v>
+      </c>
+      <c r="I158">
+        <v>1117717.950456042</v>
+      </c>
+      <c r="J158">
+        <v>4840789.7137257</v>
+      </c>
+      <c r="K158">
+        <v>3981007.850212733</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11">
+      <c r="A159">
+        <v>67</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" t="s">
+        <v>19</v>
+      </c>
+      <c r="E159">
+        <v>203.142</v>
+      </c>
+      <c r="F159">
+        <v>1116398.159339292</v>
+      </c>
+      <c r="G159">
+        <v>4841842.15541387</v>
+      </c>
+      <c r="H159">
+        <v>3986349.335413512</v>
+      </c>
+      <c r="I159">
+        <v>1117817.887204804</v>
+      </c>
+      <c r="J159">
+        <v>4840741.06214733</v>
+      </c>
+      <c r="K159">
+        <v>3980554.212617786</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11">
+      <c r="A160">
+        <v>67</v>
+      </c>
+      <c r="B160" t="s">
+        <v>13</v>
+      </c>
+      <c r="C160" t="s">
+        <v>16</v>
+      </c>
+      <c r="D160" t="s">
+        <v>19</v>
+      </c>
+      <c r="E160">
+        <v>204.142</v>
+      </c>
+      <c r="F160">
+        <v>1116397.744939506</v>
+      </c>
+      <c r="G160">
+        <v>4841858.668202482</v>
+      </c>
+      <c r="H160">
+        <v>3986356.068114088</v>
+      </c>
+      <c r="I160">
+        <v>1117920.284804063</v>
+      </c>
+      <c r="J160">
+        <v>4840692.410568957</v>
+      </c>
+      <c r="K160">
+        <v>3980085.426343716</v>
       </c>
     </row>
   </sheetData>
